--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152686.0137194486</v>
+        <v>146181.5096877078</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27761434.91825339</v>
+        <v>27761434.9182534</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10240062.58988809</v>
+        <v>10240062.58988808</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4847535.115453227</v>
+        <v>4847535.115453228</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>125.6566574884774</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>173.6367412348446</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897922</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
         <v>92.70937201392488</v>
@@ -755,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>20.79677623142359</v>
+        <v>21.84822000753462</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>222.676415663923</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>119.589367683471</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>118.4692182870659</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>200.331007107932</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>117.6824966688994</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1198,7 +1198,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>154.1212411430554</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>80.51100496435802</v>
+        <v>80.51100496435825</v>
       </c>
       <c r="T9" t="n">
         <v>140.4611363452985</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.93987438793059</v>
+        <v>37.28650849606439</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1356,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>294.7991518464974</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5407640982037</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>276.9172463784954</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.33366223977255</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>42.98556429513506</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>175.7827555181574</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>36.26726282550553</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.3594606409217</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.09789708720231</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.7151017266777</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.5425010979719</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3396663142938</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>272.5526333518903</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5407640982037</v>
+        <v>69.32034567265815</v>
       </c>
       <c r="H14" t="n">
-        <v>276.9172463784954</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.33366223977255</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.0342068405331</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6309676944925</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8072088346196</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>123.5303483850342</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5425010979719</v>
       </c>
       <c r="U16" t="n">
-        <v>35.58203550388931</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.33366223977255</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.0342068405331</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6309676944925</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>106.3192265349071</v>
+        <v>91.62823788540442</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.0702646591527</v>
+        <v>63.07026465915271</v>
       </c>
       <c r="T18" t="n">
         <v>136.6764751078761</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>60.40514279582095</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.3594606409217</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.09789708720231</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.7151017266777</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3396663142938</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>98.66299830816409</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.5407640982037</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.33366223977255</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.0342068405331</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>94.43291779003061</v>
       </c>
       <c r="V20" t="n">
-        <v>301.8423676028548</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>72.2384471144218</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8072088346196</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.3594606409217</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.09789708720231</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.17324947922506</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.7151017266777</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5425010979719</v>
+        <v>116.9627978635095</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3396663142938</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>63.1498365498059</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>167.0412323216901</v>
       </c>
       <c r="U23" t="n">
-        <v>245.2199927143985</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2383,7 +2383,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>151.987417253778</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>135.3272883762951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>74.98907719826089</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>154.6520401404924</v>
       </c>
       <c r="T25" t="n">
         <v>237.5270399892045</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3394689384372</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>35.14425680380603</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>133.1913792657931</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>78.67361399389543</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>71.09145117356773</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.8035902772485</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>34.4229996357822</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.5270399892045</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3394689384372</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>95.5906526314094</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.5326971452704</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>63.1498365498059</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.9988937540678</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6303223382578</v>
       </c>
       <c r="V29" t="n">
-        <v>154.1948985398325</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.8035902772485</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>135.3272883762951</v>
       </c>
       <c r="I31" t="n">
-        <v>13.80988297115206</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>154.6520401404924</v>
       </c>
       <c r="T31" t="n">
-        <v>237.5270399892045</v>
+        <v>46.26149410034964</v>
       </c>
       <c r="U31" t="n">
         <v>277.3394689384372</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3034,16 +3034,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>41.90237451249219</v>
       </c>
       <c r="G32" t="n">
-        <v>116.1671180908596</v>
+        <v>398.5326971452704</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>63.1498365498059</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.9988937540678</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6303223382578</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>82.10199715499824</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>184.0627204610252</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>19.85511565637462</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>276.8346306967676</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.1498365498059</v>
       </c>
       <c r="T35" t="n">
         <v>210.9988937540678</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6303223382578</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>178.7758036022685</v>
       </c>
     </row>
     <row r="36">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.6520401404924</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.5270399892045</v>
       </c>
       <c r="U37" t="n">
-        <v>256.5725121095818</v>
+        <v>277.3394689384372</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>29.30099931384476</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>74.14978963520768</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.5326971452704</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>276.8346306967676</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.1498365498059</v>
       </c>
       <c r="T38" t="n">
         <v>210.9988937540678</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6303223382578</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>217.2887190799121</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>169.540769176733</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>79.43304660530426</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>74.98907719826089</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.6520401404924</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.5270399892045</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3394689384372</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>247.4930055640884</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>276.8346306967676</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.14983654980589</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.9988937540678</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6303223382578</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>155.0391290009596</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.01054598143054</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>89.10292270863968</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.5270399892045</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3394689384372</v>
+        <v>207.3097811453222</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>114.7295000848952</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.14983654980589</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.9988937540678</v>
       </c>
       <c r="U44" t="n">
         <v>255.6303223382578</v>
       </c>
       <c r="V44" t="n">
-        <v>216.446653809646</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7192195789015591</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4185,13 +4185,13 @@
         <v>11.01054598143054</v>
       </c>
       <c r="S46" t="n">
-        <v>154.6520401404924</v>
+        <v>96.21051385043853</v>
       </c>
       <c r="T46" t="n">
-        <v>237.5270399892045</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3394689384372</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.91199246082673</v>
+        <v>1014.031259917554</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082673</v>
+        <v>587.1305299308542</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082673</v>
+        <v>163.8379091158545</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M2" t="n">
-        <v>1388.813716338606</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.813716338606</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O2" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4366,16 +4366,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1670.208975329372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1273.817625629719</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>862.0976267974665</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y2" t="n">
-        <v>456.7603567523568</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L3" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M3" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.9446384577299</v>
+        <v>369.03413975696</v>
       </c>
       <c r="C4" t="n">
-        <v>367.9720753366458</v>
+        <v>369.03413975696</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9720753366458</v>
+        <v>369.03413975696</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9720753366458</v>
+        <v>369.03413975696</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9720753366458</v>
+        <v>369.03413975696</v>
       </c>
       <c r="G4" t="n">
-        <v>201.715105630878</v>
+        <v>202.7771700511922</v>
       </c>
       <c r="H4" t="n">
-        <v>57.91883713903238</v>
+        <v>58.98090155934656</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
         <v>94.40332068498475</v>
@@ -4503,10 +4503,10 @@
         <v>1444.297549031529</v>
       </c>
       <c r="O4" t="n">
-        <v>1718.599492800575</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4515,25 +4515,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.415174541641</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V4" t="n">
-        <v>1283.70370714967</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W4" t="n">
-        <v>1008.851303322183</v>
+        <v>595.376908067218</v>
       </c>
       <c r="X4" t="n">
-        <v>766.2874067679878</v>
+        <v>595.376908067218</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.9446384577299</v>
+        <v>369.03413975696</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1433.879624209084</v>
+        <v>688.7383948353277</v>
       </c>
       <c r="C5" t="n">
-        <v>1006.978894222384</v>
+        <v>261.8376648486278</v>
       </c>
       <c r="D5" t="n">
-        <v>583.6862734073843</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E5" t="n">
-        <v>157.7093335552419</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F5" t="n">
-        <v>157.7093335552419</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
-        <v>157.7093335552419</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M5" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N5" t="n">
-        <v>358.3859952497894</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525202</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P5" t="n">
         <v>1271.957808655251</v>
@@ -4594,25 +4594,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.879624209084</v>
+        <v>1108.586759126858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1433.879624209084</v>
+        <v>1108.586759126858</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>493.6978991635576</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M6" t="n">
-        <v>950.4838058662883</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N6" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="O6" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="P6" t="n">
         <v>1306.794406253903</v>
       </c>
-      <c r="O6" t="n">
-        <v>1306.794406253903</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1763.580312956633</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>735.432042264352</v>
+        <v>538.4095343022865</v>
       </c>
       <c r="C7" t="n">
-        <v>563.459479143268</v>
+        <v>366.4369711812025</v>
       </c>
       <c r="D7" t="n">
-        <v>400.1427062700387</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="E7" t="n">
-        <v>400.1427062700387</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F7" t="n">
-        <v>400.1427062700387</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>239.8047369801043</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>594.4940582745251</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>985.6798532447758</v>
       </c>
       <c r="N7" t="n">
-        <v>1089.608227737109</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O7" t="n">
-        <v>1445.036356416872</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P7" t="n">
-        <v>1735.635568338772</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4755,22 +4755,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786371</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="V7" t="n">
-        <v>1151.940779286676</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="W7" t="n">
-        <v>1151.940779286676</v>
+        <v>1157.272823958885</v>
       </c>
       <c r="X7" t="n">
-        <v>1151.940779286676</v>
+        <v>954.91827132461</v>
       </c>
       <c r="Y7" t="n">
-        <v>925.5980109764178</v>
+        <v>728.5755030143521</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
         <v>1271.957808655251</v>
@@ -4831,19 +4831,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.319142682382</v>
+        <v>1622.361120158013</v>
       </c>
       <c r="V8" t="n">
-        <v>1008.829727808632</v>
+        <v>1264.871705284263</v>
       </c>
       <c r="W8" t="n">
-        <v>612.4383781089784</v>
+        <v>868.4803555846096</v>
       </c>
       <c r="X8" t="n">
         <v>456.7603567523568</v>
@@ -4865,46 +4865,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>539.1691872378246</v>
+        <v>576.1214380559225</v>
       </c>
       <c r="C10" t="n">
-        <v>367.1966241167406</v>
+        <v>404.1488749348384</v>
       </c>
       <c r="D10" t="n">
-        <v>203.8798512435113</v>
+        <v>240.8321020616091</v>
       </c>
       <c r="E10" t="n">
-        <v>203.8798512435113</v>
+        <v>240.8321020616091</v>
       </c>
       <c r="F10" t="n">
-        <v>203.8798512435113</v>
+        <v>240.8321020616091</v>
       </c>
       <c r="G10" t="n">
-        <v>203.8798512435113</v>
+        <v>74.57513235584128</v>
       </c>
       <c r="H10" t="n">
-        <v>60.08358275166572</v>
+        <v>74.57513235584128</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
-        <v>94.40332068498475</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L10" t="n">
         <v>430.8949765933859</v>
@@ -4992,22 +4992,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1602.260275267236</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.075826767541</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V10" t="n">
-        <v>1040.36435937557</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W10" t="n">
-        <v>765.5119555480826</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="X10" t="n">
-        <v>765.5119555480826</v>
+        <v>766.287406767988</v>
       </c>
       <c r="Y10" t="n">
-        <v>539.1691872378246</v>
+        <v>766.287406767988</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1440.262352996227</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C11" t="n">
-        <v>1440.262352996227</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D11" t="n">
-        <v>1016.969732181227</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E11" t="n">
-        <v>1016.969732181227</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F11" t="n">
-        <v>719.1928111241592</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6263827421353</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
-        <v>69.68908680674953</v>
+        <v>69.68908680674954</v>
       </c>
       <c r="J11" t="n">
         <v>188.0194673569133</v>
       </c>
       <c r="K11" t="n">
-        <v>373.6110430298045</v>
+        <v>373.6110430298049</v>
       </c>
       <c r="L11" t="n">
-        <v>609.8503400836611</v>
+        <v>609.8503400836619</v>
       </c>
       <c r="M11" t="n">
-        <v>877.8583600801458</v>
+        <v>877.8583600801464</v>
       </c>
       <c r="N11" t="n">
         <v>1150.952773895493</v>
       </c>
       <c r="O11" t="n">
-        <v>1406.661104862768</v>
+        <v>1406.661104862769</v>
       </c>
       <c r="P11" t="n">
-        <v>1619.295836682435</v>
+        <v>1619.295836682436</v>
       </c>
       <c r="Q11" t="n">
-        <v>1771.147593566358</v>
+        <v>1771.147593566359</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1781.626226839546</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1781.626226839546</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440.262352996227</v>
+        <v>1738.206464925269</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>174.2334537406417</v>
       </c>
       <c r="G12" t="n">
-        <v>81.12812477832057</v>
+        <v>81.12812477832058</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>52.90622055398273</v>
+        <v>76.3635263983946</v>
       </c>
       <c r="J12" t="n">
-        <v>120.325084434888</v>
+        <v>435.884882748891</v>
       </c>
       <c r="K12" t="n">
-        <v>248.2548201438023</v>
+        <v>563.8146184578053</v>
       </c>
       <c r="L12" t="n">
-        <v>427.79955025211</v>
+        <v>743.3593485661131</v>
       </c>
       <c r="M12" t="n">
-        <v>640.465272788682</v>
+        <v>956.0250711026852</v>
       </c>
       <c r="N12" t="n">
-        <v>861.1010289929987</v>
+        <v>1176.660827307002</v>
       </c>
       <c r="O12" t="n">
-        <v>1059.328924506395</v>
+        <v>1374.888722820398</v>
       </c>
       <c r="P12" t="n">
-        <v>1217.468998204934</v>
+        <v>1530.842461785339</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.254904907664</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>629.96311824536</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="C13" t="n">
-        <v>457.9905551242759</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="D13" t="n">
-        <v>457.9905551242759</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E13" t="n">
-        <v>457.9905551242759</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F13" t="n">
-        <v>286.1287808988363</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G13" t="n">
-        <v>249.4951820851944</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H13" t="n">
-        <v>112.7684541650715</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>71.57947588488696</v>
+        <v>149.5011925331078</v>
       </c>
       <c r="K13" t="n">
-        <v>141.3671968206024</v>
+        <v>219.2889134688233</v>
       </c>
       <c r="L13" t="n">
-        <v>362.2597791598398</v>
+        <v>313.4528613217776</v>
       </c>
       <c r="M13" t="n">
-        <v>819.0456858625706</v>
+        <v>413.2650125628039</v>
       </c>
       <c r="N13" t="n">
-        <v>1275.831592565301</v>
+        <v>870.0509192655347</v>
       </c>
       <c r="O13" t="n">
-        <v>1732.617499268032</v>
+        <v>1326.836825968266</v>
       </c>
       <c r="P13" t="n">
-        <v>1804.715629037537</v>
+        <v>1711.691160311078</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5226,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1689.321742509339</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.379822208357</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1169.238745123212</v>
       </c>
       <c r="V13" t="n">
-        <v>1563.888155649365</v>
+        <v>887.5272777312409</v>
       </c>
       <c r="W13" t="n">
-        <v>1289.035751821878</v>
+        <v>612.6748739037539</v>
       </c>
       <c r="X13" t="n">
-        <v>1046.471855267684</v>
+        <v>612.6748739037539</v>
       </c>
       <c r="Y13" t="n">
-        <v>820.1290869574257</v>
+        <v>386.332105593496</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1845.599623041336</v>
+        <v>532.9094834974724</v>
       </c>
       <c r="C14" t="n">
-        <v>1845.599623041336</v>
+        <v>532.9094834974724</v>
       </c>
       <c r="D14" t="n">
-        <v>1570.293932786902</v>
+        <v>532.9094834974724</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.316992934759</v>
+        <v>106.9325436453299</v>
       </c>
       <c r="F14" t="n">
-        <v>719.1928111241592</v>
+        <v>106.9325436453299</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6263827421353</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
-        <v>69.68908680674953</v>
+        <v>69.68908680674954</v>
       </c>
       <c r="J14" t="n">
-        <v>188.0194673569132</v>
+        <v>188.0194673569133</v>
       </c>
       <c r="K14" t="n">
-        <v>373.6110430298045</v>
+        <v>373.6110430298049</v>
       </c>
       <c r="L14" t="n">
-        <v>609.8503400836612</v>
+        <v>609.8503400836619</v>
       </c>
       <c r="M14" t="n">
-        <v>877.858360080146</v>
+        <v>877.8583600801464</v>
       </c>
       <c r="N14" t="n">
         <v>1150.952773895493</v>
       </c>
       <c r="O14" t="n">
-        <v>1406.661104862768</v>
+        <v>1406.661104862769</v>
       </c>
       <c r="P14" t="n">
-        <v>1619.295836682435</v>
+        <v>1619.295836682436</v>
       </c>
       <c r="Q14" t="n">
-        <v>1771.147593566358</v>
+        <v>1771.147593566359</v>
       </c>
       <c r="R14" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041336</v>
+        <v>1781.626226839546</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041336</v>
+        <v>1568.460361344059</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041336</v>
+        <v>1310.247262662753</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041336</v>
+        <v>952.7578477890024</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041336</v>
+        <v>952.7578477890024</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041336</v>
+        <v>952.7578477890024</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041336</v>
+        <v>952.7578477890024</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>174.2334537406417</v>
       </c>
       <c r="G15" t="n">
-        <v>81.12812477832057</v>
+        <v>81.12812477832058</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>52.90622055398273</v>
+        <v>52.90622055398276</v>
       </c>
       <c r="J15" t="n">
         <v>412.4275769044791</v>
       </c>
       <c r="K15" t="n">
-        <v>540.3573126133933</v>
+        <v>540.3573126133934</v>
       </c>
       <c r="L15" t="n">
-        <v>719.902042721701</v>
+        <v>719.9020427217013</v>
       </c>
       <c r="M15" t="n">
-        <v>932.5677652582731</v>
+        <v>932.5677652582733</v>
       </c>
       <c r="N15" t="n">
-        <v>1329.389695696055</v>
+        <v>1153.20352146259</v>
       </c>
       <c r="O15" t="n">
-        <v>1527.617591209452</v>
+        <v>1351.431416975986</v>
       </c>
       <c r="P15" t="n">
-        <v>1683.571330174392</v>
+        <v>1507.385155940927</v>
       </c>
       <c r="Q15" t="n">
-        <v>1779.71040519257</v>
+        <v>1674.254904907664</v>
       </c>
       <c r="R15" t="n">
         <v>1813.989022209105</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>875.7331356334024</v>
+        <v>546.9545356544968</v>
       </c>
       <c r="C16" t="n">
-        <v>703.7605725123184</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="D16" t="n">
-        <v>540.4437996390891</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E16" t="n">
-        <v>374.2355937919426</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F16" t="n">
-        <v>202.3738195665031</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>71.57947588488696</v>
+        <v>71.57947588488697</v>
       </c>
       <c r="K16" t="n">
-        <v>388.6498059346245</v>
+        <v>141.3671968206024</v>
       </c>
       <c r="L16" t="n">
-        <v>482.8137537875787</v>
+        <v>598.1531035233334</v>
       </c>
       <c r="M16" t="n">
-        <v>939.5996604903094</v>
+        <v>819.0456858625707</v>
       </c>
       <c r="N16" t="n">
-        <v>1038.315349825668</v>
+        <v>1275.831592565302</v>
       </c>
       <c r="O16" t="n">
-        <v>1495.101256528399</v>
+        <v>1732.617499268033</v>
       </c>
       <c r="P16" t="n">
-        <v>1804.715629037537</v>
+        <v>1804.715629037538</v>
       </c>
       <c r="Q16" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041336</v>
+        <v>1720.821493359484</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041336</v>
+        <v>1480.879573058502</v>
       </c>
       <c r="U16" t="n">
-        <v>1809.658173037408</v>
+        <v>1480.879573058502</v>
       </c>
       <c r="V16" t="n">
-        <v>1809.658173037408</v>
+        <v>1480.879573058502</v>
       </c>
       <c r="W16" t="n">
-        <v>1534.805769209921</v>
+        <v>1206.027169231015</v>
       </c>
       <c r="X16" t="n">
-        <v>1292.241872655726</v>
+        <v>963.4632726768205</v>
       </c>
       <c r="Y16" t="n">
-        <v>1065.899104345468</v>
+        <v>737.1205043665625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1738.206464925269</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C17" t="n">
-        <v>1311.305734938569</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D17" t="n">
-        <v>888.013114123569</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E17" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>69.68908680674956</v>
+        <v>69.68908680674954</v>
       </c>
       <c r="J17" t="n">
         <v>188.0194673569133</v>
       </c>
       <c r="K17" t="n">
-        <v>373.6110430298047</v>
+        <v>373.6110430298049</v>
       </c>
       <c r="L17" t="n">
-        <v>609.8503400836612</v>
+        <v>609.8503400836619</v>
       </c>
       <c r="M17" t="n">
-        <v>877.8583600801458</v>
+        <v>877.8583600801464</v>
       </c>
       <c r="N17" t="n">
         <v>1150.952773895493</v>
       </c>
       <c r="O17" t="n">
-        <v>1406.661104862768</v>
+        <v>1406.661104862769</v>
       </c>
       <c r="P17" t="n">
-        <v>1619.295836682435</v>
+        <v>1619.295836682436</v>
       </c>
       <c r="Q17" t="n">
-        <v>1771.147593566358</v>
+        <v>1771.147593566359</v>
       </c>
       <c r="R17" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041336</v>
+        <v>1781.626226839546</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041336</v>
+        <v>1568.460361344059</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041336</v>
+        <v>1310.247262662753</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041336</v>
+        <v>952.7578477890024</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041336</v>
+        <v>556.3664980893493</v>
       </c>
       <c r="X17" t="n">
-        <v>1738.206464925269</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="Y17" t="n">
-        <v>1738.206464925269</v>
+        <v>463.8127224475267</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>174.2334537406417</v>
       </c>
       <c r="G18" t="n">
-        <v>81.12812477832057</v>
+        <v>81.12812477832058</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>52.90622055398275</v>
+        <v>52.90622055398276</v>
       </c>
       <c r="J18" t="n">
-        <v>412.4275769044791</v>
+        <v>120.325084434888</v>
       </c>
       <c r="K18" t="n">
-        <v>540.3573126133934</v>
+        <v>248.2548201438024</v>
       </c>
       <c r="L18" t="n">
-        <v>719.9020427217013</v>
+        <v>535.4413852706132</v>
       </c>
       <c r="M18" t="n">
-        <v>932.5677652582733</v>
+        <v>748.1071078071852</v>
       </c>
       <c r="N18" t="n">
-        <v>1153.20352146259</v>
+        <v>968.742864011502</v>
       </c>
       <c r="O18" t="n">
-        <v>1351.431416975986</v>
+        <v>1166.970759524898</v>
       </c>
       <c r="P18" t="n">
-        <v>1507.385155940927</v>
+        <v>1322.924498489839</v>
       </c>
       <c r="Q18" t="n">
         <v>1779.71040519257</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>436.1080571824116</v>
+        <v>756.6462923049473</v>
       </c>
       <c r="C19" t="n">
-        <v>264.1354940613277</v>
+        <v>584.6737291838633</v>
       </c>
       <c r="D19" t="n">
-        <v>264.1354940613277</v>
+        <v>421.356956310634</v>
       </c>
       <c r="E19" t="n">
-        <v>97.92728821418123</v>
+        <v>421.356956310634</v>
       </c>
       <c r="F19" t="n">
-        <v>97.92728821418123</v>
+        <v>249.4951820851944</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082673</v>
+        <v>249.4951820851944</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082673</v>
+        <v>112.7684541650715</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>149.5011925331079</v>
+        <v>149.5011925331078</v>
       </c>
       <c r="K19" t="n">
         <v>466.5715225828453</v>
@@ -5682,43 +5682,43 @@
         <v>560.7354704357996</v>
       </c>
       <c r="M19" t="n">
-        <v>1017.52137713853</v>
+        <v>667.6721884846718</v>
       </c>
       <c r="N19" t="n">
-        <v>1116.237066473889</v>
+        <v>1124.458095187403</v>
       </c>
       <c r="O19" t="n">
-        <v>1268.487797316826</v>
+        <v>1581.244001890134</v>
       </c>
       <c r="P19" t="n">
-        <v>1653.342131659638</v>
+        <v>1653.342131659639</v>
       </c>
       <c r="Q19" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1689.321742509339</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1689.321742509339</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U19" t="n">
-        <v>1409.180665424193</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V19" t="n">
-        <v>1127.469198032222</v>
+        <v>1563.888155649366</v>
       </c>
       <c r="W19" t="n">
-        <v>852.6167942047352</v>
+        <v>1289.035751821879</v>
       </c>
       <c r="X19" t="n">
-        <v>852.6167942047352</v>
+        <v>1046.471855267684</v>
       </c>
       <c r="Y19" t="n">
-        <v>626.2740258944773</v>
+        <v>946.812261017013</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1144.316992934759</v>
+        <v>719.1928111241592</v>
       </c>
       <c r="C20" t="n">
-        <v>1144.316992934759</v>
+        <v>719.1928111241592</v>
       </c>
       <c r="D20" t="n">
-        <v>1144.316992934759</v>
+        <v>719.1928111241592</v>
       </c>
       <c r="E20" t="n">
-        <v>1144.316992934759</v>
+        <v>719.1928111241592</v>
       </c>
       <c r="F20" t="n">
         <v>719.1928111241592</v>
@@ -5746,58 +5746,58 @@
         <v>316.6263827421353</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>69.68908680674953</v>
+        <v>69.68908680674954</v>
       </c>
       <c r="J20" t="n">
         <v>188.0194673569133</v>
       </c>
       <c r="K20" t="n">
-        <v>373.6110430298045</v>
+        <v>373.6110430298049</v>
       </c>
       <c r="L20" t="n">
-        <v>609.8503400836612</v>
+        <v>609.8503400836619</v>
       </c>
       <c r="M20" t="n">
-        <v>877.858360080146</v>
+        <v>877.8583600801464</v>
       </c>
       <c r="N20" t="n">
         <v>1150.952773895493</v>
       </c>
       <c r="O20" t="n">
-        <v>1406.661104862768</v>
+        <v>1406.661104862769</v>
       </c>
       <c r="P20" t="n">
-        <v>1619.295836682435</v>
+        <v>1619.295836682436</v>
       </c>
       <c r="Q20" t="n">
-        <v>1771.147593566358</v>
+        <v>1771.147593566359</v>
       </c>
       <c r="R20" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041336</v>
+        <v>1781.626226839546</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041336</v>
+        <v>1568.460361344059</v>
       </c>
       <c r="U20" t="n">
-        <v>1845.599623041336</v>
+        <v>1473.073575697563</v>
       </c>
       <c r="V20" t="n">
-        <v>1540.708342634412</v>
+        <v>1115.584160823812</v>
       </c>
       <c r="W20" t="n">
-        <v>1144.316992934759</v>
+        <v>719.1928111241592</v>
       </c>
       <c r="X20" t="n">
-        <v>1144.316992934759</v>
+        <v>719.1928111241592</v>
       </c>
       <c r="Y20" t="n">
-        <v>1144.316992934759</v>
+        <v>719.1928111241592</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>174.2334537406417</v>
       </c>
       <c r="G21" t="n">
-        <v>81.12812477832057</v>
+        <v>81.12812477832058</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>52.90622055398273</v>
+        <v>76.3635263983946</v>
       </c>
       <c r="J21" t="n">
-        <v>412.4275769044791</v>
+        <v>435.884882748891</v>
       </c>
       <c r="K21" t="n">
-        <v>540.3573126133933</v>
+        <v>563.8146184578053</v>
       </c>
       <c r="L21" t="n">
-        <v>719.902042721701</v>
+        <v>743.3593485661131</v>
       </c>
       <c r="M21" t="n">
-        <v>932.5677652582731</v>
+        <v>956.0250711026852</v>
       </c>
       <c r="N21" t="n">
-        <v>1153.20352146259</v>
+        <v>1176.660827307002</v>
       </c>
       <c r="O21" t="n">
-        <v>1351.431416975986</v>
+        <v>1374.888722820398</v>
       </c>
       <c r="P21" t="n">
-        <v>1507.385155940927</v>
+        <v>1530.842461785339</v>
       </c>
       <c r="Q21" t="n">
-        <v>1674.254904907664</v>
+        <v>1779.71040519257</v>
       </c>
       <c r="R21" t="n">
         <v>1813.989022209105</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.8801208592326</v>
+        <v>586.8187834163103</v>
       </c>
       <c r="C22" t="n">
-        <v>36.91199246082673</v>
+        <v>586.8187834163103</v>
       </c>
       <c r="D22" t="n">
-        <v>36.91199246082673</v>
+        <v>586.8187834163103</v>
       </c>
       <c r="E22" t="n">
-        <v>36.91199246082673</v>
+        <v>586.8187834163103</v>
       </c>
       <c r="F22" t="n">
-        <v>36.91199246082673</v>
+        <v>414.9570091908707</v>
       </c>
       <c r="G22" t="n">
-        <v>36.91199246082673</v>
+        <v>249.4951820851944</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082673</v>
+        <v>112.7684541650715</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>71.57947588488696</v>
+        <v>149.5011925331078</v>
       </c>
       <c r="K22" t="n">
-        <v>141.3671968206024</v>
+        <v>466.5715225828453</v>
       </c>
       <c r="L22" t="n">
-        <v>362.25977915984</v>
+        <v>923.3574292855762</v>
       </c>
       <c r="M22" t="n">
-        <v>819.0456858625707</v>
+        <v>1187.952552815897</v>
       </c>
       <c r="N22" t="n">
-        <v>1275.831592565301</v>
+        <v>1644.738459518627</v>
       </c>
       <c r="O22" t="n">
-        <v>1732.617499268032</v>
+        <v>1732.617499268033</v>
       </c>
       <c r="P22" t="n">
-        <v>1804.715629037537</v>
+        <v>1804.715629037538</v>
       </c>
       <c r="Q22" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041336</v>
+        <v>1834.313512456261</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041336</v>
+        <v>1678.035631924263</v>
       </c>
       <c r="T22" t="n">
-        <v>1605.657702740355</v>
+        <v>1559.891391658092</v>
       </c>
       <c r="U22" t="n">
-        <v>1325.516625655209</v>
+        <v>1559.891391658092</v>
       </c>
       <c r="V22" t="n">
-        <v>1043.805158263238</v>
+        <v>1278.179924266121</v>
       </c>
       <c r="W22" t="n">
-        <v>768.9527544357511</v>
+        <v>1003.327520438634</v>
       </c>
       <c r="X22" t="n">
-        <v>526.3888578815562</v>
+        <v>1003.327520438634</v>
       </c>
       <c r="Y22" t="n">
-        <v>300.0460895712982</v>
+        <v>776.9847521283759</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.11499991405189</v>
+        <v>464.0157299007518</v>
       </c>
       <c r="C23" t="n">
         <v>37.11499991405189</v>
@@ -5986,19 +5986,19 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I23" t="n">
-        <v>70.19998545090461</v>
+        <v>70.19998545090448</v>
       </c>
       <c r="J23" t="n">
         <v>189.2081918221224</v>
       </c>
       <c r="K23" t="n">
-        <v>375.8156526925557</v>
+        <v>375.8156526925561</v>
       </c>
       <c r="L23" t="n">
-        <v>613.3152451646774</v>
+        <v>613.315245164678</v>
       </c>
       <c r="M23" t="n">
-        <v>882.725586646912</v>
+        <v>882.7255866469125</v>
       </c>
       <c r="N23" t="n">
         <v>1157.24501297573</v>
@@ -6016,25 +6016,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S23" t="n">
-        <v>1855.749995702594</v>
+        <v>1791.962282015922</v>
       </c>
       <c r="T23" t="n">
-        <v>1855.749995702594</v>
+        <v>1623.233764519265</v>
       </c>
       <c r="U23" t="n">
-        <v>1608.053033364818</v>
+        <v>1623.233764519265</v>
       </c>
       <c r="V23" t="n">
-        <v>1250.563618491067</v>
+        <v>1265.744349645515</v>
       </c>
       <c r="W23" t="n">
-        <v>854.1722687914144</v>
+        <v>869.3529999458615</v>
       </c>
       <c r="X23" t="n">
-        <v>442.4522699591616</v>
+        <v>869.3529999458615</v>
       </c>
       <c r="Y23" t="n">
-        <v>37.11499991405189</v>
+        <v>464.0157299007518</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I24" t="n">
-        <v>53.25634796734286</v>
+        <v>76.7136538117547</v>
       </c>
       <c r="J24" t="n">
-        <v>121.0789202636962</v>
+        <v>436.6387185776991</v>
       </c>
       <c r="K24" t="n">
-        <v>249.6986579563416</v>
+        <v>565.2584562703445</v>
       </c>
       <c r="L24" t="n">
-        <v>540.303288955552</v>
+        <v>745.7309791973123</v>
       </c>
       <c r="M24" t="n">
-        <v>999.6014128919442</v>
+        <v>959.4793921921005</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.34851514926</v>
+        <v>1181.226494449416</v>
       </c>
       <c r="O24" t="n">
-        <v>1420.593075182076</v>
+        <v>1380.471054482232</v>
       </c>
       <c r="P24" t="n">
-        <v>1577.362777054578</v>
+        <v>1537.240756354734</v>
       </c>
       <c r="Q24" t="n">
         <v>1674.047301667631</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>362.6102067258208</v>
+        <v>922.9150892885835</v>
       </c>
       <c r="C25" t="n">
-        <v>190.6376436047368</v>
+        <v>750.9425261674995</v>
       </c>
       <c r="D25" t="n">
-        <v>190.6376436047368</v>
+        <v>587.6257532942702</v>
       </c>
       <c r="E25" t="n">
-        <v>190.6376436047368</v>
+        <v>421.4175474471238</v>
       </c>
       <c r="F25" t="n">
-        <v>37.11499991405189</v>
+        <v>249.5557732216842</v>
       </c>
       <c r="G25" t="n">
-        <v>37.11499991405189</v>
+        <v>249.5557732216842</v>
       </c>
       <c r="H25" t="n">
-        <v>37.11499991405189</v>
+        <v>112.8615425385578</v>
       </c>
       <c r="I25" t="n">
         <v>37.11499991405189</v>
       </c>
       <c r="J25" t="n">
-        <v>72.03575702418662</v>
+        <v>72.03575702418661</v>
       </c>
       <c r="K25" t="n">
         <v>142.2396844287245</v>
@@ -6174,25 +6174,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S25" t="n">
-        <v>1855.749995702594</v>
+        <v>1699.535813742501</v>
       </c>
       <c r="T25" t="n">
-        <v>1615.823692683196</v>
+        <v>1459.609510723102</v>
       </c>
       <c r="U25" t="n">
-        <v>1335.682814967603</v>
+        <v>1459.609510723102</v>
       </c>
       <c r="V25" t="n">
-        <v>1053.971347575631</v>
+        <v>1424.110261426329</v>
       </c>
       <c r="W25" t="n">
-        <v>779.1189437481444</v>
+        <v>1149.257857598842</v>
       </c>
       <c r="X25" t="n">
-        <v>779.1189437481444</v>
+        <v>1149.257857598842</v>
       </c>
       <c r="Y25" t="n">
-        <v>552.7761754378864</v>
+        <v>922.9150892885835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>887.3083507157515</v>
+        <v>888.2161215767942</v>
       </c>
       <c r="C26" t="n">
-        <v>460.4076207290516</v>
+        <v>888.2161215767942</v>
       </c>
       <c r="D26" t="n">
-        <v>37.11499991405189</v>
+        <v>888.2161215767942</v>
       </c>
       <c r="E26" t="n">
-        <v>37.11499991405189</v>
+        <v>462.2391817246517</v>
       </c>
       <c r="F26" t="n">
         <v>37.11499991405189</v>
@@ -6226,13 +6226,13 @@
         <v>70.19998545090448</v>
       </c>
       <c r="J26" t="n">
-        <v>189.2081918221223</v>
+        <v>189.2081918221224</v>
       </c>
       <c r="K26" t="n">
-        <v>375.8156526925559</v>
+        <v>375.8156526925561</v>
       </c>
       <c r="L26" t="n">
-        <v>613.3152451646779</v>
+        <v>613.315245164678</v>
       </c>
       <c r="M26" t="n">
         <v>882.7255866469125</v>
@@ -6241,10 +6241,10 @@
         <v>1157.24501297573</v>
       </c>
       <c r="O26" t="n">
-        <v>1414.29894285088</v>
+        <v>1414.298942850879</v>
       </c>
       <c r="P26" t="n">
-        <v>1628.082112206886</v>
+        <v>1628.082112206885</v>
       </c>
       <c r="Q26" t="n">
         <v>1780.796297852744</v>
@@ -6259,19 +6259,19 @@
         <v>1791.962282015922</v>
       </c>
       <c r="U26" t="n">
-        <v>1791.962282015922</v>
+        <v>1657.425535282797</v>
       </c>
       <c r="V26" t="n">
-        <v>1791.962282015922</v>
+        <v>1299.936120409047</v>
       </c>
       <c r="W26" t="n">
-        <v>1791.962282015922</v>
+        <v>1299.936120409047</v>
       </c>
       <c r="X26" t="n">
-        <v>1712.493985052391</v>
+        <v>888.2161215767942</v>
       </c>
       <c r="Y26" t="n">
-        <v>1307.156715007281</v>
+        <v>888.2161215767942</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I27" t="n">
-        <v>53.25634796734286</v>
+        <v>76.7136538117547</v>
       </c>
       <c r="J27" t="n">
-        <v>121.0789202636962</v>
+        <v>436.6387185776991</v>
       </c>
       <c r="K27" t="n">
-        <v>580.3770442000882</v>
+        <v>565.2584562703445</v>
       </c>
       <c r="L27" t="n">
-        <v>760.849567127056</v>
+        <v>745.7309791973123</v>
       </c>
       <c r="M27" t="n">
-        <v>974.5979801218443</v>
+        <v>959.4793921921005</v>
       </c>
       <c r="N27" t="n">
-        <v>1196.34508237916</v>
+        <v>1181.226494449416</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.589642411976</v>
+        <v>1380.471054482232</v>
       </c>
       <c r="P27" t="n">
-        <v>1552.359344284478</v>
+        <v>1537.240756354734</v>
       </c>
       <c r="Q27" t="n">
-        <v>1779.502801952536</v>
+        <v>1674.047301667631</v>
       </c>
       <c r="R27" t="n">
         <v>1814.046722173615</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.9245465540193</v>
+        <v>910.7031946809823</v>
       </c>
       <c r="C28" t="n">
-        <v>108.9245465540193</v>
+        <v>738.7306315598983</v>
       </c>
       <c r="D28" t="n">
-        <v>37.11499991405189</v>
+        <v>575.413858686669</v>
       </c>
       <c r="E28" t="n">
-        <v>37.11499991405189</v>
+        <v>409.2056528395225</v>
       </c>
       <c r="F28" t="n">
-        <v>37.11499991405189</v>
+        <v>237.3438786140829</v>
       </c>
       <c r="G28" t="n">
-        <v>37.11499991405189</v>
+        <v>71.88570661686219</v>
       </c>
       <c r="H28" t="n">
-        <v>37.11499991405189</v>
+        <v>71.88570661686219</v>
       </c>
       <c r="I28" t="n">
         <v>37.11499991405189</v>
       </c>
       <c r="J28" t="n">
-        <v>72.03575702418662</v>
+        <v>149.9574736724075</v>
       </c>
       <c r="K28" t="n">
-        <v>142.2396844287245</v>
+        <v>467.4440101909674</v>
       </c>
       <c r="L28" t="n">
-        <v>364.1402537472237</v>
+        <v>926.7421341273596</v>
       </c>
       <c r="M28" t="n">
-        <v>823.4383776836157</v>
+        <v>1027.115838431133</v>
       </c>
       <c r="N28" t="n">
-        <v>1282.736501620008</v>
+        <v>1126.379728352539</v>
       </c>
       <c r="O28" t="n">
-        <v>1742.0346255564</v>
+        <v>1277.904923605193</v>
       </c>
       <c r="P28" t="n">
-        <v>1814.566026911289</v>
+        <v>1663.19252953339</v>
       </c>
       <c r="Q28" t="n">
         <v>1855.749995702594</v>
@@ -6414,22 +6414,22 @@
         <v>1844.628232084988</v>
       </c>
       <c r="T28" t="n">
-        <v>1604.701929065589</v>
+        <v>1844.628232084988</v>
       </c>
       <c r="U28" t="n">
-        <v>1324.561051349996</v>
+        <v>1844.628232084988</v>
       </c>
       <c r="V28" t="n">
-        <v>1042.849583958025</v>
+        <v>1844.628232084988</v>
       </c>
       <c r="W28" t="n">
-        <v>767.9971801305378</v>
+        <v>1569.775828257501</v>
       </c>
       <c r="X28" t="n">
-        <v>525.4332835763429</v>
+        <v>1327.211931703306</v>
       </c>
       <c r="Y28" t="n">
-        <v>299.0905152660849</v>
+        <v>1100.869163393048</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>463.0919397661943</v>
+        <v>963.1302246246707</v>
       </c>
       <c r="C29" t="n">
-        <v>463.0919397661943</v>
+        <v>536.2294946379709</v>
       </c>
       <c r="D29" t="n">
-        <v>463.0919397661943</v>
+        <v>439.6732798587695</v>
       </c>
       <c r="E29" t="n">
-        <v>37.11499991405189</v>
+        <v>439.6732798587695</v>
       </c>
       <c r="F29" t="n">
-        <v>37.11499991405189</v>
+        <v>439.6732798587695</v>
       </c>
       <c r="G29" t="n">
         <v>37.11499991405189</v>
@@ -6460,25 +6460,25 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I29" t="n">
-        <v>70.19998545090459</v>
+        <v>70.19998545090448</v>
       </c>
       <c r="J29" t="n">
-        <v>189.2081918221224</v>
+        <v>189.2081918221221</v>
       </c>
       <c r="K29" t="n">
-        <v>375.8156526925559</v>
+        <v>375.8156526925557</v>
       </c>
       <c r="L29" t="n">
-        <v>613.3152451646778</v>
+        <v>613.3152451646775</v>
       </c>
       <c r="M29" t="n">
-        <v>882.7255866469125</v>
+        <v>882.7255866469122</v>
       </c>
       <c r="N29" t="n">
         <v>1157.24501297573</v>
       </c>
       <c r="O29" t="n">
-        <v>1414.29894285088</v>
+        <v>1414.298942850879</v>
       </c>
       <c r="P29" t="n">
         <v>1628.082112206886</v>
@@ -6490,25 +6490,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S29" t="n">
-        <v>1855.749995702594</v>
+        <v>1791.962282015922</v>
       </c>
       <c r="T29" t="n">
-        <v>1855.749995702594</v>
+        <v>1578.832086304742</v>
       </c>
       <c r="U29" t="n">
-        <v>1855.749995702594</v>
+        <v>1320.619639498421</v>
       </c>
       <c r="V29" t="n">
-        <v>1699.997572935087</v>
+        <v>963.1302246246707</v>
       </c>
       <c r="W29" t="n">
-        <v>1699.997572935087</v>
+        <v>963.1302246246707</v>
       </c>
       <c r="X29" t="n">
-        <v>1288.277574102834</v>
+        <v>963.1302246246707</v>
       </c>
       <c r="Y29" t="n">
-        <v>882.9403040577245</v>
+        <v>963.1302246246707</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I30" t="n">
-        <v>53.25634796734286</v>
+        <v>76.7136538117547</v>
       </c>
       <c r="J30" t="n">
-        <v>413.1814127332873</v>
+        <v>436.6387185776991</v>
       </c>
       <c r="K30" t="n">
-        <v>541.8011504259326</v>
+        <v>605.3804769701885</v>
       </c>
       <c r="L30" t="n">
-        <v>722.2736733529005</v>
+        <v>785.8529998971562</v>
       </c>
       <c r="M30" t="n">
-        <v>936.0220863476886</v>
+        <v>999.6014128919444</v>
       </c>
       <c r="N30" t="n">
-        <v>1157.769188605005</v>
+        <v>1221.34851514926</v>
       </c>
       <c r="O30" t="n">
-        <v>1357.01374863782</v>
+        <v>1420.593075182076</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.783450510322</v>
+        <v>1577.362777054578</v>
       </c>
       <c r="Q30" t="n">
-        <v>1779.502801952536</v>
+        <v>1674.047301667631</v>
       </c>
       <c r="R30" t="n">
         <v>1814.046722173615</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>394.8987139991129</v>
+        <v>674.4459496930679</v>
       </c>
       <c r="C31" t="n">
-        <v>222.9261508780289</v>
+        <v>674.4459496930679</v>
       </c>
       <c r="D31" t="n">
-        <v>222.9261508780289</v>
+        <v>511.1291768198386</v>
       </c>
       <c r="E31" t="n">
-        <v>222.9261508780289</v>
+        <v>511.1291768198386</v>
       </c>
       <c r="F31" t="n">
-        <v>51.06437665258932</v>
+        <v>339.267402594399</v>
       </c>
       <c r="G31" t="n">
-        <v>51.06437665258932</v>
+        <v>173.8092305971782</v>
       </c>
       <c r="H31" t="n">
-        <v>51.06437665258932</v>
+        <v>37.11499991405189</v>
       </c>
       <c r="I31" t="n">
         <v>37.11499991405189</v>
@@ -6648,25 +6648,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S31" t="n">
-        <v>1855.749995702594</v>
+        <v>1699.535813742501</v>
       </c>
       <c r="T31" t="n">
-        <v>1615.823692683196</v>
+        <v>1652.807031822956</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.682814967603</v>
+        <v>1372.666154107363</v>
       </c>
       <c r="V31" t="n">
-        <v>1053.971347575631</v>
+        <v>1090.954686715392</v>
       </c>
       <c r="W31" t="n">
-        <v>1053.971347575631</v>
+        <v>1090.954686715392</v>
       </c>
       <c r="X31" t="n">
-        <v>811.4074510214365</v>
+        <v>1090.954686715392</v>
       </c>
       <c r="Y31" t="n">
-        <v>585.0646827111785</v>
+        <v>864.6119184051336</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1855.749995702594</v>
+        <v>908.8996406661686</v>
       </c>
       <c r="C32" t="n">
-        <v>1428.849265715894</v>
+        <v>481.9989106794687</v>
       </c>
       <c r="D32" t="n">
-        <v>1005.556644900895</v>
+        <v>481.9989106794687</v>
       </c>
       <c r="E32" t="n">
-        <v>579.5797050487523</v>
+        <v>481.9989106794687</v>
       </c>
       <c r="F32" t="n">
-        <v>154.4555232381525</v>
+        <v>439.6732798587695</v>
       </c>
       <c r="G32" t="n">
         <v>37.11499991405189</v>
@@ -6697,28 +6697,28 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I32" t="n">
-        <v>70.19998545090458</v>
+        <v>70.19998545090459</v>
       </c>
       <c r="J32" t="n">
         <v>189.2081918221224</v>
       </c>
       <c r="K32" t="n">
-        <v>375.8156526925561</v>
+        <v>375.8156526925559</v>
       </c>
       <c r="L32" t="n">
-        <v>613.315245164678</v>
+        <v>613.3152451646778</v>
       </c>
       <c r="M32" t="n">
-        <v>882.7255866469126</v>
+        <v>882.7255866469122</v>
       </c>
       <c r="N32" t="n">
         <v>1157.24501297573</v>
       </c>
       <c r="O32" t="n">
-        <v>1414.29894285088</v>
+        <v>1414.298942850879</v>
       </c>
       <c r="P32" t="n">
-        <v>1628.082112206886</v>
+        <v>1628.082112206885</v>
       </c>
       <c r="Q32" t="n">
         <v>1780.796297852744</v>
@@ -6727,25 +6727,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S32" t="n">
-        <v>1855.749995702594</v>
+        <v>1791.962282015922</v>
       </c>
       <c r="T32" t="n">
-        <v>1855.749995702594</v>
+        <v>1578.832086304742</v>
       </c>
       <c r="U32" t="n">
-        <v>1855.749995702594</v>
+        <v>1320.619639498421</v>
       </c>
       <c r="V32" t="n">
-        <v>1855.749995702594</v>
+        <v>1320.619639498421</v>
       </c>
       <c r="W32" t="n">
-        <v>1855.749995702594</v>
+        <v>1320.619639498421</v>
       </c>
       <c r="X32" t="n">
-        <v>1855.749995702594</v>
+        <v>908.8996406661686</v>
       </c>
       <c r="Y32" t="n">
-        <v>1855.749995702594</v>
+        <v>908.8996406661686</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I33" t="n">
-        <v>53.25634796734286</v>
+        <v>76.7136538117547</v>
       </c>
       <c r="J33" t="n">
-        <v>413.1814127332873</v>
+        <v>436.6387185776991</v>
       </c>
       <c r="K33" t="n">
-        <v>541.8011504259326</v>
+        <v>605.3804769701885</v>
       </c>
       <c r="L33" t="n">
         <v>785.8529998971562</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.0463101716259</v>
+        <v>208.9767741394915</v>
       </c>
       <c r="C34" t="n">
-        <v>37.11499991405189</v>
+        <v>208.9767741394915</v>
       </c>
       <c r="D34" t="n">
-        <v>37.11499991405189</v>
+        <v>208.9767741394915</v>
       </c>
       <c r="E34" t="n">
-        <v>37.11499991405189</v>
+        <v>208.9767741394915</v>
       </c>
       <c r="F34" t="n">
         <v>37.11499991405189</v>
@@ -6858,10 +6858,10 @@
         <v>37.11499991405189</v>
       </c>
       <c r="J34" t="n">
-        <v>149.9574736724075</v>
+        <v>72.03575702418661</v>
       </c>
       <c r="K34" t="n">
-        <v>269.4437049090486</v>
+        <v>142.2396844287245</v>
       </c>
       <c r="L34" t="n">
         <v>364.1402537472237</v>
@@ -6897,13 +6897,13 @@
         <v>1053.971347575631</v>
       </c>
       <c r="W34" t="n">
-        <v>779.1189437481444</v>
+        <v>868.04940771601</v>
       </c>
       <c r="X34" t="n">
-        <v>536.5550471939495</v>
+        <v>625.4855111618151</v>
       </c>
       <c r="Y34" t="n">
-        <v>310.2122788836915</v>
+        <v>399.1427428515571</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.17067229422827</v>
+        <v>743.6466699984969</v>
       </c>
       <c r="C35" t="n">
-        <v>57.17067229422827</v>
+        <v>316.745940011797</v>
       </c>
       <c r="D35" t="n">
-        <v>37.11499991405189</v>
+        <v>316.745940011797</v>
       </c>
       <c r="E35" t="n">
-        <v>37.11499991405189</v>
+        <v>316.745940011797</v>
       </c>
       <c r="F35" t="n">
-        <v>37.11499991405189</v>
+        <v>316.745940011797</v>
       </c>
       <c r="G35" t="n">
-        <v>37.11499991405189</v>
+        <v>316.745940011797</v>
       </c>
       <c r="H35" t="n">
         <v>37.11499991405189</v>
@@ -6943,19 +6943,19 @@
         <v>375.8156526925559</v>
       </c>
       <c r="L35" t="n">
-        <v>613.3152451646779</v>
+        <v>613.3152451646778</v>
       </c>
       <c r="M35" t="n">
-        <v>882.7255866469125</v>
+        <v>882.7255866469122</v>
       </c>
       <c r="N35" t="n">
         <v>1157.24501297573</v>
       </c>
       <c r="O35" t="n">
-        <v>1414.29894285088</v>
+        <v>1414.298942850879</v>
       </c>
       <c r="P35" t="n">
-        <v>1628.082112206886</v>
+        <v>1628.082112206885</v>
       </c>
       <c r="Q35" t="n">
         <v>1780.796297852744</v>
@@ -6964,25 +6964,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S35" t="n">
-        <v>1855.749995702594</v>
+        <v>1791.962282015922</v>
       </c>
       <c r="T35" t="n">
-        <v>1642.619799991415</v>
+        <v>1578.832086304742</v>
       </c>
       <c r="U35" t="n">
-        <v>1642.619799991415</v>
+        <v>1320.619639498421</v>
       </c>
       <c r="V35" t="n">
-        <v>1285.130385117664</v>
+        <v>1320.619639498421</v>
       </c>
       <c r="W35" t="n">
-        <v>888.7390354180111</v>
+        <v>924.2282897987682</v>
       </c>
       <c r="X35" t="n">
-        <v>477.0190365857583</v>
+        <v>924.2282897987682</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.0190365857583</v>
+        <v>743.6466699984969</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>53.25634796734286</v>
       </c>
       <c r="J36" t="n">
-        <v>413.1814127332873</v>
+        <v>121.0789202636962</v>
       </c>
       <c r="K36" t="n">
-        <v>605.3804769701885</v>
+        <v>249.6986579563415</v>
       </c>
       <c r="L36" t="n">
-        <v>785.8529998971562</v>
+        <v>430.1711808833093</v>
       </c>
       <c r="M36" t="n">
-        <v>999.6014128919444</v>
+        <v>643.9195938780975</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.34851514926</v>
+        <v>865.6666961354134</v>
       </c>
       <c r="O36" t="n">
-        <v>1420.593075182076</v>
+        <v>1064.911256168229</v>
       </c>
       <c r="P36" t="n">
-        <v>1577.362777054578</v>
+        <v>1221.680958040731</v>
       </c>
       <c r="Q36" t="n">
-        <v>1674.047301667631</v>
+        <v>1680.979081977123</v>
       </c>
       <c r="R36" t="n">
         <v>1814.046722173615</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>380.9493372605755</v>
+        <v>209.0875630351359</v>
       </c>
       <c r="C37" t="n">
-        <v>208.9767741394915</v>
+        <v>37.11499991405189</v>
       </c>
       <c r="D37" t="n">
-        <v>208.9767741394915</v>
+        <v>37.11499991405189</v>
       </c>
       <c r="E37" t="n">
-        <v>208.9767741394915</v>
+        <v>37.11499991405189</v>
       </c>
       <c r="F37" t="n">
         <v>37.11499991405189</v>
@@ -7098,19 +7098,19 @@
         <v>72.03575702418661</v>
       </c>
       <c r="K37" t="n">
-        <v>389.5222935427465</v>
+        <v>142.2396844287245</v>
       </c>
       <c r="L37" t="n">
-        <v>848.8204174791385</v>
+        <v>364.1402537472237</v>
       </c>
       <c r="M37" t="n">
-        <v>949.1941217829118</v>
+        <v>823.4383776836157</v>
       </c>
       <c r="N37" t="n">
-        <v>1048.458011704318</v>
+        <v>1282.736501620008</v>
       </c>
       <c r="O37" t="n">
-        <v>1507.75613564071</v>
+        <v>1742.0346255564</v>
       </c>
       <c r="P37" t="n">
         <v>1814.566026911289</v>
@@ -7122,25 +7122,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S37" t="n">
-        <v>1855.749995702594</v>
+        <v>1699.535813742501</v>
       </c>
       <c r="T37" t="n">
-        <v>1855.749995702594</v>
+        <v>1459.609510723102</v>
       </c>
       <c r="U37" t="n">
-        <v>1596.585842056552</v>
+        <v>1179.468633007509</v>
       </c>
       <c r="V37" t="n">
-        <v>1314.874374664581</v>
+        <v>897.757165615538</v>
       </c>
       <c r="W37" t="n">
-        <v>1040.021970837094</v>
+        <v>868.1601966116544</v>
       </c>
       <c r="X37" t="n">
-        <v>797.4580742828991</v>
+        <v>625.5963000574595</v>
       </c>
       <c r="Y37" t="n">
-        <v>571.1153059726412</v>
+        <v>399.2535317472015</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1642.619799991415</v>
+        <v>743.6466699984969</v>
       </c>
       <c r="C38" t="n">
-        <v>1642.619799991415</v>
+        <v>316.745940011797</v>
       </c>
       <c r="D38" t="n">
-        <v>1219.327179176415</v>
+        <v>316.745940011797</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.428401767114</v>
+        <v>316.745940011797</v>
       </c>
       <c r="F38" t="n">
-        <v>719.3042199565145</v>
+        <v>316.745940011797</v>
       </c>
       <c r="G38" t="n">
         <v>316.745940011797</v>
@@ -7171,16 +7171,16 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I38" t="n">
-        <v>70.19998545090459</v>
+        <v>70.19998545090448</v>
       </c>
       <c r="J38" t="n">
-        <v>189.2081918221224</v>
+        <v>189.2081918221221</v>
       </c>
       <c r="K38" t="n">
-        <v>375.8156526925559</v>
+        <v>375.8156526925557</v>
       </c>
       <c r="L38" t="n">
-        <v>613.3152451646778</v>
+        <v>613.3152451646775</v>
       </c>
       <c r="M38" t="n">
         <v>882.7255866469122</v>
@@ -7192,7 +7192,7 @@
         <v>1414.298942850879</v>
       </c>
       <c r="P38" t="n">
-        <v>1628.082112206885</v>
+        <v>1628.082112206886</v>
       </c>
       <c r="Q38" t="n">
         <v>1780.796297852744</v>
@@ -7201,25 +7201,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S38" t="n">
-        <v>1855.749995702594</v>
+        <v>1791.962282015922</v>
       </c>
       <c r="T38" t="n">
-        <v>1642.619799991415</v>
+        <v>1578.832086304742</v>
       </c>
       <c r="U38" t="n">
-        <v>1642.619799991415</v>
+        <v>1320.619639498421</v>
       </c>
       <c r="V38" t="n">
-        <v>1642.619799991415</v>
+        <v>963.1302246246707</v>
       </c>
       <c r="W38" t="n">
-        <v>1642.619799991415</v>
+        <v>743.6466699984969</v>
       </c>
       <c r="X38" t="n">
-        <v>1642.619799991415</v>
+        <v>743.6466699984969</v>
       </c>
       <c r="Y38" t="n">
-        <v>1642.619799991415</v>
+        <v>743.6466699984969</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I39" t="n">
-        <v>53.25634796734286</v>
+        <v>76.7136538117547</v>
       </c>
       <c r="J39" t="n">
-        <v>413.1814127332873</v>
+        <v>436.6387185776991</v>
       </c>
       <c r="K39" t="n">
-        <v>541.8011504259326</v>
+        <v>565.2584562703445</v>
       </c>
       <c r="L39" t="n">
-        <v>722.2736733529005</v>
+        <v>745.7309791973123</v>
       </c>
       <c r="M39" t="n">
-        <v>936.0220863476886</v>
+        <v>959.4793921921005</v>
       </c>
       <c r="N39" t="n">
-        <v>1157.769188605005</v>
+        <v>1181.226494449416</v>
       </c>
       <c r="O39" t="n">
-        <v>1357.01374863782</v>
+        <v>1380.471054482232</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.783450510322</v>
+        <v>1537.240756354734</v>
       </c>
       <c r="Q39" t="n">
-        <v>1779.502801952536</v>
+        <v>1674.047301667631</v>
       </c>
       <c r="R39" t="n">
         <v>1814.046722173615</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4562592168757</v>
+        <v>380.3408652338561</v>
       </c>
       <c r="C40" t="n">
-        <v>694.4836960957916</v>
+        <v>208.3683021127721</v>
       </c>
       <c r="D40" t="n">
-        <v>531.1669232225623</v>
+        <v>208.3683021127721</v>
       </c>
       <c r="E40" t="n">
-        <v>364.9587173754159</v>
+        <v>208.3683021127721</v>
       </c>
       <c r="F40" t="n">
-        <v>193.0969431499763</v>
+        <v>37.11499991405189</v>
       </c>
       <c r="G40" t="n">
-        <v>193.0969431499763</v>
+        <v>37.11499991405189</v>
       </c>
       <c r="H40" t="n">
-        <v>112.8615425385578</v>
+        <v>37.11499991405189</v>
       </c>
       <c r="I40" t="n">
         <v>37.11499991405189</v>
@@ -7338,16 +7338,16 @@
         <v>142.2396844287245</v>
       </c>
       <c r="L40" t="n">
-        <v>364.1402537472237</v>
+        <v>236.9362332668996</v>
       </c>
       <c r="M40" t="n">
-        <v>823.4383776836157</v>
+        <v>696.2343572032917</v>
       </c>
       <c r="N40" t="n">
-        <v>1282.736501620008</v>
+        <v>1155.532481139684</v>
       </c>
       <c r="O40" t="n">
-        <v>1742.0346255564</v>
+        <v>1614.830605076076</v>
       </c>
       <c r="P40" t="n">
         <v>1814.566026911289</v>
@@ -7359,25 +7359,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S40" t="n">
-        <v>1855.749995702594</v>
+        <v>1699.535813742501</v>
       </c>
       <c r="T40" t="n">
-        <v>1855.749995702594</v>
+        <v>1459.609510723102</v>
       </c>
       <c r="U40" t="n">
-        <v>1855.749995702594</v>
+        <v>1179.468633007509</v>
       </c>
       <c r="V40" t="n">
-        <v>1574.038528310623</v>
+        <v>897.757165615538</v>
       </c>
       <c r="W40" t="n">
-        <v>1299.186124483136</v>
+        <v>622.904761788051</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.622227928941</v>
+        <v>380.3408652338561</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.622227928941</v>
+        <v>380.3408652338561</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>462.2391817246517</v>
+        <v>566.7388749250176</v>
       </c>
       <c r="C41" t="n">
-        <v>462.2391817246517</v>
+        <v>566.7388749250176</v>
       </c>
       <c r="D41" t="n">
-        <v>462.2391817246517</v>
+        <v>566.7388749250176</v>
       </c>
       <c r="E41" t="n">
-        <v>462.2391817246517</v>
+        <v>566.7388749250176</v>
       </c>
       <c r="F41" t="n">
-        <v>37.11499991405189</v>
+        <v>566.7388749250176</v>
       </c>
       <c r="G41" t="n">
-        <v>37.11499991405189</v>
+        <v>316.745940011797</v>
       </c>
       <c r="H41" t="n">
         <v>37.11499991405189</v>
@@ -7438,25 +7438,25 @@
         <v>1855.749995702594</v>
       </c>
       <c r="S41" t="n">
-        <v>1855.749995702594</v>
+        <v>1791.962282015922</v>
       </c>
       <c r="T41" t="n">
-        <v>1855.749995702594</v>
+        <v>1578.832086304742</v>
       </c>
       <c r="U41" t="n">
-        <v>1855.749995702594</v>
+        <v>1320.619639498421</v>
       </c>
       <c r="V41" t="n">
-        <v>1855.749995702594</v>
+        <v>963.1302246246707</v>
       </c>
       <c r="W41" t="n">
-        <v>1699.144814893544</v>
+        <v>566.7388749250176</v>
       </c>
       <c r="X41" t="n">
-        <v>1287.424816061291</v>
+        <v>566.7388749250176</v>
       </c>
       <c r="Y41" t="n">
-        <v>882.0875460161817</v>
+        <v>566.7388749250176</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.25634796734287</v>
       </c>
       <c r="J42" t="n">
-        <v>413.1814127332873</v>
+        <v>219.602640239109</v>
       </c>
       <c r="K42" t="n">
-        <v>541.8011504259327</v>
+        <v>348.2223779317544</v>
       </c>
       <c r="L42" t="n">
-        <v>722.2736733529006</v>
+        <v>528.6949008587222</v>
       </c>
       <c r="M42" t="n">
-        <v>936.0220863476889</v>
+        <v>742.4433138535105</v>
       </c>
       <c r="N42" t="n">
-        <v>1326.804015434166</v>
+        <v>964.1904161108265</v>
       </c>
       <c r="O42" t="n">
-        <v>1526.048575466981</v>
+        <v>1163.434976143642</v>
       </c>
       <c r="P42" t="n">
-        <v>1682.818277339484</v>
+        <v>1320.204678016144</v>
       </c>
       <c r="Q42" t="n">
         <v>1779.502801952536</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.0875630351359</v>
+        <v>380.9493372605755</v>
       </c>
       <c r="C43" t="n">
-        <v>37.11499991405189</v>
+        <v>208.9767741394915</v>
       </c>
       <c r="D43" t="n">
-        <v>37.11499991405189</v>
+        <v>208.9767741394915</v>
       </c>
       <c r="E43" t="n">
-        <v>37.11499991405189</v>
+        <v>208.9767741394915</v>
       </c>
       <c r="F43" t="n">
         <v>37.11499991405189</v>
@@ -7578,7 +7578,7 @@
         <v>601.5378083651166</v>
       </c>
       <c r="M43" t="n">
-        <v>823.4383776836157</v>
+        <v>1060.835932301509</v>
       </c>
       <c r="N43" t="n">
         <v>1282.736501620008</v>
@@ -7593,28 +7593,28 @@
         <v>1855.749995702594</v>
       </c>
       <c r="R43" t="n">
-        <v>1844.628232084988</v>
+        <v>1855.749995702594</v>
       </c>
       <c r="S43" t="n">
-        <v>1754.625279854039</v>
+        <v>1855.749995702594</v>
       </c>
       <c r="T43" t="n">
-        <v>1514.69897683464</v>
+        <v>1615.823692683196</v>
       </c>
       <c r="U43" t="n">
-        <v>1234.558099119047</v>
+        <v>1406.419873344486</v>
       </c>
       <c r="V43" t="n">
-        <v>952.8466317270756</v>
+        <v>1124.708405952515</v>
       </c>
       <c r="W43" t="n">
-        <v>677.9942278995887</v>
+        <v>849.8560021250283</v>
       </c>
       <c r="X43" t="n">
-        <v>435.4303313453938</v>
+        <v>607.2921055708334</v>
       </c>
       <c r="Y43" t="n">
-        <v>209.0875630351359</v>
+        <v>380.9493372605755</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.116851563494</v>
+        <v>576.2960046531882</v>
       </c>
       <c r="C44" t="n">
-        <v>888.2161215767942</v>
+        <v>576.2960046531882</v>
       </c>
       <c r="D44" t="n">
-        <v>888.2161215767942</v>
+        <v>153.0033838381885</v>
       </c>
       <c r="E44" t="n">
-        <v>462.2391817246517</v>
+        <v>153.0033838381885</v>
       </c>
       <c r="F44" t="n">
-        <v>37.11499991405189</v>
+        <v>153.0033838381885</v>
       </c>
       <c r="G44" t="n">
         <v>37.11499991405189</v>
@@ -7645,25 +7645,25 @@
         <v>37.11499991405189</v>
       </c>
       <c r="I44" t="n">
-        <v>70.19998545090448</v>
+        <v>70.19998545090471</v>
       </c>
       <c r="J44" t="n">
-        <v>189.2081918221223</v>
+        <v>189.2081918221226</v>
       </c>
       <c r="K44" t="n">
-        <v>375.8156526925559</v>
+        <v>375.8156526925561</v>
       </c>
       <c r="L44" t="n">
-        <v>613.3152451646779</v>
+        <v>613.315245164678</v>
       </c>
       <c r="M44" t="n">
-        <v>882.7255866469125</v>
+        <v>882.7255866469127</v>
       </c>
       <c r="N44" t="n">
-        <v>1157.24501297573</v>
+        <v>1157.245012975731</v>
       </c>
       <c r="O44" t="n">
-        <v>1414.29894285088</v>
+        <v>1414.298942850879</v>
       </c>
       <c r="P44" t="n">
         <v>1628.082112206886</v>
@@ -7675,25 +7675,25 @@
         <v>1855.749995702595</v>
       </c>
       <c r="S44" t="n">
-        <v>1791.962282015922</v>
+        <v>1855.749995702595</v>
       </c>
       <c r="T44" t="n">
-        <v>1791.962282015922</v>
+        <v>1642.619799991415</v>
       </c>
       <c r="U44" t="n">
-        <v>1533.749835209601</v>
+        <v>1384.407353185094</v>
       </c>
       <c r="V44" t="n">
-        <v>1315.116851563494</v>
+        <v>1384.407353185094</v>
       </c>
       <c r="W44" t="n">
-        <v>1315.116851563494</v>
+        <v>988.0160034854409</v>
       </c>
       <c r="X44" t="n">
-        <v>1315.116851563494</v>
+        <v>576.2960046531882</v>
       </c>
       <c r="Y44" t="n">
-        <v>1315.116851563494</v>
+        <v>576.2960046531882</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>76.71365381175471</v>
       </c>
       <c r="J45" t="n">
-        <v>144.536226108108</v>
+        <v>436.6387185776991</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1559638007535</v>
+        <v>605.3804769701879</v>
       </c>
       <c r="L45" t="n">
-        <v>453.6284867277213</v>
+        <v>785.8529998971558</v>
       </c>
       <c r="M45" t="n">
-        <v>867.5058914977735</v>
+        <v>999.6014128919441</v>
       </c>
       <c r="N45" t="n">
-        <v>1326.804015434166</v>
+        <v>1221.34851514926</v>
       </c>
       <c r="O45" t="n">
-        <v>1526.048575466981</v>
+        <v>1420.593075182076</v>
       </c>
       <c r="P45" t="n">
-        <v>1682.818277339484</v>
+        <v>1577.362777054578</v>
       </c>
       <c r="Q45" t="n">
-        <v>1779.502801952536</v>
+        <v>1674.047301667631</v>
       </c>
       <c r="R45" t="n">
         <v>1814.046722173615</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>925.7829728357079</v>
+        <v>1088.373261285804</v>
       </c>
       <c r="C46" t="n">
-        <v>753.8104097146239</v>
+        <v>916.4006981647203</v>
       </c>
       <c r="D46" t="n">
         <v>753.083925291491</v>
@@ -7806,22 +7806,22 @@
         <v>37.11499991405189</v>
       </c>
       <c r="J46" t="n">
-        <v>72.03575702418664</v>
+        <v>149.9574736724075</v>
       </c>
       <c r="K46" t="n">
-        <v>142.2396844287246</v>
+        <v>220.1614010769454</v>
       </c>
       <c r="L46" t="n">
-        <v>601.5378083651167</v>
+        <v>572.8009903843106</v>
       </c>
       <c r="M46" t="n">
-        <v>701.9115126688899</v>
+        <v>1032.099114320703</v>
       </c>
       <c r="N46" t="n">
-        <v>818.6067996688014</v>
+        <v>1131.363004242109</v>
       </c>
       <c r="O46" t="n">
-        <v>1277.904923605194</v>
+        <v>1590.661128178501</v>
       </c>
       <c r="P46" t="n">
         <v>1663.192529533391</v>
@@ -7833,25 +7833,25 @@
         <v>1844.628232084988</v>
       </c>
       <c r="S46" t="n">
-        <v>1688.414050124895</v>
+        <v>1747.445894862323</v>
       </c>
       <c r="T46" t="n">
-        <v>1448.487747105496</v>
+        <v>1747.445894862323</v>
       </c>
       <c r="U46" t="n">
-        <v>1168.346869389903</v>
+        <v>1747.445894862323</v>
       </c>
       <c r="V46" t="n">
-        <v>1168.346869389903</v>
+        <v>1747.445894862323</v>
       </c>
       <c r="W46" t="n">
-        <v>1168.346869389903</v>
+        <v>1747.445894862323</v>
       </c>
       <c r="X46" t="n">
-        <v>925.7829728357079</v>
+        <v>1504.881998308128</v>
       </c>
       <c r="Y46" t="n">
-        <v>925.7829728357079</v>
+        <v>1278.53922999787</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>113.9226282079388</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>458.3324042602125</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425366</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5718579722076</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>362.0008377727921</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705654</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>381.2527255747684</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8376,10 +8376,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>167.8347719225297</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8391,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>135.6943654946478</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>455.6196014764234</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>457.2862635810461</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,7 +8470,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8537,25 +8537,25 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>190.8306636765795</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>99.71676862514317</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L10" t="n">
-        <v>361.8093214193388</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.208418922825814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>364.2897289742959</v>
+        <v>47.75087687287628</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>128.0087217033164</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>360.5795509714187</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>361.6870882498708</v>
@@ -8865,10 +8865,10 @@
         <v>372.6331989427533</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>93.96410982470648</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>177.965832559056</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>71.44512520056502</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>366.2848069189663</v>
       </c>
       <c r="M16" t="n">
-        <v>360.5795509714186</v>
+        <v>122.3034657557687</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>361.6870882498708</v>
       </c>
       <c r="O16" t="n">
-        <v>372.6331989427532</v>
+        <v>372.6331989427533</v>
       </c>
       <c r="P16" t="n">
-        <v>239.9153967067004</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>108.7291262813162</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.9658325590555</v>
+        <v>364.2897289742959</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9330,16 +9330,16 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>360.5795509714186</v>
+        <v>7.196532129137211</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>361.6870882498708</v>
       </c>
       <c r="O19" t="n">
-        <v>65.02191019548621</v>
+        <v>372.6331989427533</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.44512520056527</v>
+        <v>154.2715842313668</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>128.0087217033165</v>
+        <v>366.2848069189663</v>
       </c>
       <c r="M22" t="n">
-        <v>360.5795509714186</v>
+        <v>166.4474467568626</v>
       </c>
       <c r="N22" t="n">
         <v>361.6870882498708</v>
       </c>
       <c r="O22" t="n">
-        <v>372.6331989427532</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>111.244553608326</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>248.0300110521252</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>40.52729363620588</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9807,7 +9807,7 @@
         <v>362.5499188208271</v>
       </c>
       <c r="N25" t="n">
-        <v>363.6709434494806</v>
+        <v>363.6709434494807</v>
       </c>
       <c r="O25" t="n">
         <v>374.6593254716526</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>334.0185719633805</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>131.7767000555614</v>
+        <v>40.52729363620588</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>128.4889095760849</v>
+        <v>368.2844192911283</v>
       </c>
       <c r="M28" t="n">
-        <v>362.5499188208271</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>363.6709434494806</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>374.6593254716526</v>
+        <v>63.77757932646296</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>40.52729363620614</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>170.7422493223853</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>40.52729363620614</v>
       </c>
       <c r="L33" t="n">
-        <v>64.22154196389477</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>49.78010488091233</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>128.4889095760849</v>
       </c>
       <c r="M34" t="n">
         <v>362.5499188208271</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>64.22154196389479</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>366.276362952868</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>99.51890906607382</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>368.2844192911283</v>
+        <v>128.4889095760849</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>362.5499188208271</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>363.6709434494807</v>
       </c>
       <c r="O37" t="n">
         <v>374.6593254716526</v>
       </c>
       <c r="P37" t="n">
-        <v>236.6449393087775</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>170.7422493223853</v>
+        <v>40.52729363620588</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>128.4889095760849</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>362.5499188208271</v>
@@ -10998,7 +10998,7 @@
         <v>374.6593254716526</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>128.4889095760848</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>99.51890906607353</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>170.7422493223847</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>366.276362952868</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11226,10 +11226,10 @@
         <v>368.2844192911282</v>
       </c>
       <c r="M43" t="n">
-        <v>122.7544091057837</v>
+        <v>362.5499188208271</v>
       </c>
       <c r="N43" t="n">
-        <v>363.6709434494805</v>
+        <v>123.8754337344373</v>
       </c>
       <c r="O43" t="n">
         <v>374.6593254716526</v>
@@ -11375,19 +11375,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>40.52729363620543</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>202.1504967426909</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>239.9505269485618</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>368.2844192911283</v>
+        <v>260.5485257264546</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>362.5499188208271</v>
       </c>
       <c r="N46" t="n">
-        <v>17.60747179646982</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>374.6593254716526</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22549,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>296.0605129651436</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -22606,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>180.2777794901684</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22707,7 +22707,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>77.97410634570319</v>
+        <v>76.92266256959216</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,10 +22755,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>196.3832789429267</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22801,7 +22801,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>175.3003270572345</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22950,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>46.1251817216443</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,16 +22998,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>39.80725048072088</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>138.0888636406524</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>253.4815577008748</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23193,13 +23193,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>75.83100818919618</v>
+        <v>61.48437408106239</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>126.0737881459964</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5407640982037</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>276.9172463784954</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.33366223977256</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.0342068405331</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6309676944925</v>
+        <v>212.6454033993574</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>12.48155350678763</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>127.5399460091141</v>
+        <v>163.8072088346196</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.3594606409217</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.09789708720231</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.17324947922508</v>
+        <v>11.17324947922506</v>
       </c>
       <c r="S13" t="n">
-        <v>154.7151017266777</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5425010979719</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3396663142938</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>146.5070612549594</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>329.2204184255455</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>276.9172463784954</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.33366223977256</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.0342068405331</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6309676944925</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8072088346196</v>
       </c>
       <c r="H16" t="n">
         <v>135.3594606409217</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.17324947922508</v>
+        <v>11.17324947922506</v>
       </c>
       <c r="S16" t="n">
-        <v>154.7151017266777</v>
+        <v>31.18475334164343</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5425010979719</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>241.7576308104045</v>
+        <v>277.3396663142938</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.5407640982037</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.33366223977254</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.0342068405331</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6309676944925</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>301.2835723090232</v>
+        <v>315.9745609585258</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>103.4020660387986</v>
+        <v>163.8072088346196</v>
       </c>
       <c r="H19" t="n">
-        <v>135.3594606409217</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.09789708720231</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>11.17324947922506</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.7151017266777</v>
       </c>
       <c r="T19" t="n">
         <v>237.5425010979719</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3396663142938</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>125.4163423189913</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.33366223977256</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.0342068405331</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6309676944925</v>
+        <v>161.1980499044618</v>
       </c>
       <c r="V20" t="n">
-        <v>52.07215312215817</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>98.01439037545134</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8072088346196</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.3594606409217</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.09789708720231</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.17324947922508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.7151017266777</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>120.5797032344624</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3396663142938</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.1498365498059</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.9988937540678</v>
+        <v>43.95766143237768</v>
       </c>
       <c r="U23" t="n">
-        <v>10.41032962385927</v>
+        <v>255.6303223382578</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>18.15573922940715</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.8035902772485</v>
       </c>
       <c r="H25" t="n">
-        <v>135.3272883762951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>74.98907719826089</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>11.01054598143055</v>
       </c>
       <c r="S25" t="n">
-        <v>154.6520401404924</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3394689384372</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>243.7500959142453</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.5326971452704</v>
@@ -24499,19 +24499,19 @@
         <v>210.9988937540678</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6303223382578</v>
+        <v>122.4389430724647</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>328.9291848500347</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.59215397092926</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8035902772485</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>135.3272883762951</v>
       </c>
       <c r="I28" t="n">
-        <v>74.98907719826089</v>
+        <v>40.56607756247868</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>154.6520401404924</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.5270399892045</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3394689384372</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>323.4690419754403</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.5326971452704</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>276.8346306967676</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.1498365498059</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.9988937540678</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6303223382578</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>199.7196221851805</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8035902772485</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>135.3272883762951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.17919422710883</v>
+        <v>74.98907719826089</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>11.01054598143055</v>
       </c>
       <c r="S31" t="n">
-        <v>154.6520401404924</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.2655458888549</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>378.9705654800015</v>
       </c>
       <c r="G32" t="n">
-        <v>282.3655790544108</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>276.8346306967676</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>63.1498365498059</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.9988937540678</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6303223382578</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -24982,7 +24982,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>88.1508403348749</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.8035902772485</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>88.04115932818695</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>399.2045789504751</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25171,7 +25171,7 @@
         <v>398.5326971452704</v>
       </c>
       <c r="H35" t="n">
-        <v>276.8346306967676</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.1498365498059</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6303223382578</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>222.50809374239</v>
       </c>
     </row>
     <row r="36">
@@ -25323,7 +25323,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.8035902772485</v>
@@ -25362,19 +25362,19 @@
         <v>11.01054598143055</v>
       </c>
       <c r="S37" t="n">
-        <v>154.6520401404924</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.5270399892045</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>20.76695682885543</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>242.8028804753673</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>347.5673808184133</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.5326971452704</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.1498365498059</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6303223382578</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>175.1387171227445</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.6023873064521581</v>
       </c>
       <c r="G40" t="n">
         <v>163.8035902772485</v>
       </c>
       <c r="H40" t="n">
-        <v>55.89424177099083</v>
+        <v>135.3272883762951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>74.98907719826089</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>11.01054598143055</v>
       </c>
       <c r="S40" t="n">
-        <v>154.6520401404924</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.5270399892045</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3394689384372</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25639,13 +25639,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.5326971452704</v>
+        <v>151.039691581182</v>
       </c>
       <c r="H41" t="n">
-        <v>276.8346306967676</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.14983654980589</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.9988937540678</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6303223382578</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>237.388307201697</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25797,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.8035902772485</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>11.01054598143054</v>
       </c>
       <c r="S43" t="n">
-        <v>65.54911743185275</v>
+        <v>154.6520401404924</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>70.02968779311499</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.5326971452704</v>
+        <v>283.8031970603752</v>
       </c>
       <c r="H44" t="n">
         <v>276.8346306967676</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.14983654980589</v>
       </c>
       <c r="T44" t="n">
-        <v>210.9988937540678</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>137.467866915367</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>160.9643855655954</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>58.4415262900539</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.5270399892045</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3394689384372</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>452242.4184495392</v>
+        <v>452242.4184495393</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>452242.4184495392</v>
+        <v>452242.4184495393</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>407437.8383753817</v>
+        <v>407437.8383753819</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407437.8383753817</v>
+        <v>407437.8383753819</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407437.8383753817</v>
+        <v>407437.8383753818</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>408747.9422103336</v>
+        <v>408747.9422103335</v>
       </c>
     </row>
     <row r="14">
@@ -26325,19 +26325,19 @@
         <v>147649.1982977692</v>
       </c>
       <c r="F2" t="n">
-        <v>147649.1982977691</v>
+        <v>147649.1982977692</v>
       </c>
       <c r="G2" t="n">
-        <v>147649.198297769</v>
+        <v>147649.1982977692</v>
       </c>
       <c r="H2" t="n">
-        <v>147649.1982977691</v>
+        <v>147649.1982977692</v>
       </c>
       <c r="I2" t="n">
+        <v>148149.9525804971</v>
+      </c>
+      <c r="J2" t="n">
         <v>148149.952580497</v>
-      </c>
-      <c r="J2" t="n">
-        <v>148149.9525804971</v>
       </c>
       <c r="K2" t="n">
         <v>148149.9525804971</v>
@@ -26346,7 +26346,7 @@
         <v>148149.9525804971</v>
       </c>
       <c r="M2" t="n">
-        <v>148149.952580497</v>
+        <v>148149.9525804971</v>
       </c>
       <c r="N2" t="n">
         <v>148149.9525804971</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>350712.1527373848</v>
+        <v>350712.1527373849</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2185.306512061258</v>
+        <v>2185.306512061142</v>
       </c>
       <c r="J3" t="n">
         <v>120722.5169427569</v>
@@ -26420,7 +26420,7 @@
         <v>69251.62932334839</v>
       </c>
       <c r="C4" t="n">
-        <v>69251.62932334837</v>
+        <v>69251.6293233484</v>
       </c>
       <c r="D4" t="n">
         <v>69251.62932334839</v>
@@ -26441,7 +26441,7 @@
         <v>11481.90500631678</v>
       </c>
       <c r="J4" t="n">
-        <v>11481.90500631678</v>
+        <v>11481.90500631679</v>
       </c>
       <c r="K4" t="n">
         <v>11481.90500631679</v>
@@ -26450,10 +26450,10 @@
         <v>11481.90500631679</v>
       </c>
       <c r="M4" t="n">
-        <v>11481.90500631679</v>
+        <v>11481.90500631678</v>
       </c>
       <c r="N4" t="n">
-        <v>11481.90500631679</v>
+        <v>11481.90500631678</v>
       </c>
       <c r="O4" t="n">
         <v>11481.90500631678</v>
@@ -26481,13 +26481,13 @@
         <v>37569.53993664354</v>
       </c>
       <c r="F5" t="n">
-        <v>37569.53993664353</v>
+        <v>37569.53993664354</v>
       </c>
       <c r="G5" t="n">
         <v>37569.53993664354</v>
       </c>
       <c r="H5" t="n">
-        <v>37569.53993664353</v>
+        <v>37569.53993664354</v>
       </c>
       <c r="I5" t="n">
         <v>37767.57067011349</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142726.162989782</v>
+        <v>-143430.5228112736</v>
       </c>
       <c r="C6" t="n">
-        <v>11899.55762833852</v>
+        <v>11195.19780684695</v>
       </c>
       <c r="D6" t="n">
-        <v>11899.55762833844</v>
+        <v>11195.1978068469</v>
       </c>
       <c r="E6" t="n">
-        <v>-252146.873364423</v>
+        <v>-252825.8789907786</v>
       </c>
       <c r="F6" t="n">
-        <v>98565.27937296164</v>
+        <v>97886.2737466063</v>
       </c>
       <c r="G6" t="n">
-        <v>98565.27937296161</v>
+        <v>97886.27374660636</v>
       </c>
       <c r="H6" t="n">
-        <v>98565.2793729617</v>
+        <v>97886.27374660636</v>
       </c>
       <c r="I6" t="n">
-        <v>96715.17039200553</v>
+        <v>96038.80031450671</v>
       </c>
       <c r="J6" t="n">
-        <v>-21822.04003869007</v>
+        <v>-22498.41011618914</v>
       </c>
       <c r="K6" t="n">
-        <v>98900.47690406683</v>
+        <v>98224.10682656786</v>
       </c>
       <c r="L6" t="n">
-        <v>98900.4769040668</v>
+        <v>98224.10682656786</v>
       </c>
       <c r="M6" t="n">
-        <v>98900.47690406677</v>
+        <v>98224.10682656786</v>
       </c>
       <c r="N6" t="n">
-        <v>98900.4769040668</v>
+        <v>98224.10682656789</v>
       </c>
       <c r="O6" t="n">
-        <v>98900.4769040668</v>
+        <v>98224.10682656786</v>
       </c>
       <c r="P6" t="n">
-        <v>98900.47690406677</v>
+        <v>98224.1068265678</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>436.5332874502395</v>
+        <v>436.5332874502396</v>
       </c>
       <c r="F3" t="n">
-        <v>436.5332874502395</v>
+        <v>436.5332874502396</v>
       </c>
       <c r="G3" t="n">
-        <v>436.5332874502397</v>
+        <v>436.5332874502396</v>
       </c>
       <c r="H3" t="n">
-        <v>436.5332874502395</v>
+        <v>436.5332874502396</v>
       </c>
       <c r="I3" t="n">
-        <v>438.539941992388</v>
+        <v>438.5399419923879</v>
       </c>
       <c r="J3" t="n">
-        <v>438.539941992388</v>
+        <v>438.5399419923879</v>
       </c>
       <c r="K3" t="n">
         <v>438.5399419923879</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
         <v>463.9374989256486</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>436.5332874502395</v>
+        <v>436.5332874502396</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.006654542148397</v>
+        <v>2.006654542148283</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.53759316531449</v>
+        <v>2.537593165314377</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603343</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31758,31 +31758,31 @@
         <v>17.97244836221011</v>
       </c>
       <c r="I11" t="n">
-        <v>67.65607865095623</v>
+        <v>67.65607865095625</v>
       </c>
       <c r="J11" t="n">
         <v>148.9455964049438</v>
       </c>
       <c r="K11" t="n">
-        <v>223.2308388482348</v>
+        <v>223.2308388482349</v>
       </c>
       <c r="L11" t="n">
-        <v>276.9375950122761</v>
+        <v>276.9375950122762</v>
       </c>
       <c r="M11" t="n">
-        <v>308.1464346130527</v>
+        <v>308.1464346130528</v>
       </c>
       <c r="N11" t="n">
-        <v>313.1325660822708</v>
+        <v>313.1325660822709</v>
       </c>
       <c r="O11" t="n">
-        <v>295.6822027573127</v>
+        <v>295.6822027573128</v>
       </c>
       <c r="P11" t="n">
-        <v>252.3579192038342</v>
+        <v>252.3579192038343</v>
       </c>
       <c r="Q11" t="n">
-        <v>189.5102876186615</v>
+        <v>189.5102876186616</v>
       </c>
       <c r="R11" t="n">
         <v>110.2367200715422</v>
@@ -31791,7 +31791,7 @@
         <v>39.98995894581844</v>
       </c>
       <c r="T11" t="n">
-        <v>7.682108405280093</v>
+        <v>7.682108405280094</v>
       </c>
       <c r="U11" t="n">
         <v>0.1403926150593734</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9389583918741001</v>
+        <v>0.9389583918741004</v>
       </c>
       <c r="H12" t="n">
-        <v>9.0683613109946</v>
+        <v>9.068361310994602</v>
       </c>
       <c r="I12" t="n">
-        <v>32.32817270268283</v>
+        <v>32.32817270268285</v>
       </c>
       <c r="J12" t="n">
-        <v>88.71097683929823</v>
+        <v>88.71097683929824</v>
       </c>
       <c r="K12" t="n">
-        <v>151.6211890948629</v>
+        <v>151.621189094863</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8733999549444</v>
+        <v>203.8733999549445</v>
       </c>
       <c r="M12" t="n">
-        <v>237.9106416603805</v>
+        <v>237.9106416603806</v>
       </c>
       <c r="N12" t="n">
-        <v>244.2074284199222</v>
+        <v>244.2074284199223</v>
       </c>
       <c r="O12" t="n">
-        <v>223.4020872105013</v>
+        <v>223.4020872105014</v>
       </c>
       <c r="P12" t="n">
-        <v>179.2998704623446</v>
+        <v>179.2998704623447</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.8572150750167</v>
+        <v>119.8572150750168</v>
       </c>
       <c r="R12" t="n">
-        <v>58.29778506741125</v>
+        <v>58.29778506741128</v>
       </c>
       <c r="S12" t="n">
-        <v>17.44074030520531</v>
+        <v>17.44074030520532</v>
       </c>
       <c r="T12" t="n">
-        <v>3.784661237422358</v>
+        <v>3.784661237422359</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06177357841276977</v>
+        <v>0.06177357841276979</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7871911740905958</v>
+        <v>0.787191174090596</v>
       </c>
       <c r="H13" t="n">
-        <v>6.998845166005484</v>
+        <v>6.998845166005486</v>
       </c>
       <c r="I13" t="n">
         <v>23.67298548992447</v>
       </c>
       <c r="J13" t="n">
-        <v>55.65441600820512</v>
+        <v>55.65441600820513</v>
       </c>
       <c r="K13" t="n">
-        <v>91.45730186252557</v>
+        <v>91.45730186252558</v>
       </c>
       <c r="L13" t="n">
-        <v>117.0338587370691</v>
+        <v>117.0338587370692</v>
       </c>
       <c r="M13" t="n">
         <v>123.3957946804013</v>
@@ -31934,25 +31934,25 @@
         <v>120.4617184860637</v>
       </c>
       <c r="O13" t="n">
-        <v>111.2658943160053</v>
+        <v>111.2658943160054</v>
       </c>
       <c r="P13" t="n">
-        <v>95.20719436455711</v>
+        <v>95.20719436455714</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.91652640498617</v>
+        <v>65.91652640498619</v>
       </c>
       <c r="R13" t="n">
-        <v>35.3949777004735</v>
+        <v>35.39497770047352</v>
       </c>
       <c r="S13" t="n">
-        <v>13.71859527937883</v>
+        <v>13.71859527937884</v>
       </c>
       <c r="T13" t="n">
-        <v>3.36345319838709</v>
+        <v>3.363453198387091</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04293770040494164</v>
+        <v>0.04293770040494165</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,31 +31995,31 @@
         <v>17.97244836221011</v>
       </c>
       <c r="I14" t="n">
-        <v>67.65607865095623</v>
+        <v>67.65607865095625</v>
       </c>
       <c r="J14" t="n">
         <v>148.9455964049438</v>
       </c>
       <c r="K14" t="n">
-        <v>223.2308388482348</v>
+        <v>223.2308388482349</v>
       </c>
       <c r="L14" t="n">
-        <v>276.9375950122761</v>
+        <v>276.9375950122762</v>
       </c>
       <c r="M14" t="n">
-        <v>308.1464346130527</v>
+        <v>308.1464346130528</v>
       </c>
       <c r="N14" t="n">
-        <v>313.1325660822708</v>
+        <v>313.1325660822709</v>
       </c>
       <c r="O14" t="n">
-        <v>295.6822027573127</v>
+        <v>295.6822027573128</v>
       </c>
       <c r="P14" t="n">
-        <v>252.3579192038342</v>
+        <v>252.3579192038343</v>
       </c>
       <c r="Q14" t="n">
-        <v>189.5102876186615</v>
+        <v>189.5102876186616</v>
       </c>
       <c r="R14" t="n">
         <v>110.2367200715422</v>
@@ -32028,7 +32028,7 @@
         <v>39.98995894581844</v>
       </c>
       <c r="T14" t="n">
-        <v>7.682108405280093</v>
+        <v>7.682108405280094</v>
       </c>
       <c r="U14" t="n">
         <v>0.1403926150593734</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9389583918741001</v>
+        <v>0.9389583918741004</v>
       </c>
       <c r="H15" t="n">
-        <v>9.0683613109946</v>
+        <v>9.068361310994602</v>
       </c>
       <c r="I15" t="n">
-        <v>32.32817270268283</v>
+        <v>32.32817270268285</v>
       </c>
       <c r="J15" t="n">
-        <v>88.71097683929823</v>
+        <v>88.71097683929824</v>
       </c>
       <c r="K15" t="n">
-        <v>151.6211890948629</v>
+        <v>151.621189094863</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8733999549444</v>
+        <v>203.8733999549445</v>
       </c>
       <c r="M15" t="n">
-        <v>237.9106416603805</v>
+        <v>237.9106416603806</v>
       </c>
       <c r="N15" t="n">
-        <v>244.2074284199222</v>
+        <v>244.2074284199223</v>
       </c>
       <c r="O15" t="n">
-        <v>223.4020872105013</v>
+        <v>223.4020872105014</v>
       </c>
       <c r="P15" t="n">
-        <v>179.2998704623446</v>
+        <v>179.2998704623447</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.8572150750167</v>
+        <v>119.8572150750168</v>
       </c>
       <c r="R15" t="n">
-        <v>58.29778506741125</v>
+        <v>58.29778506741128</v>
       </c>
       <c r="S15" t="n">
-        <v>17.44074030520531</v>
+        <v>17.44074030520532</v>
       </c>
       <c r="T15" t="n">
-        <v>3.784661237422358</v>
+        <v>3.784661237422359</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06177357841276977</v>
+        <v>0.06177357841276979</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7871911740905958</v>
+        <v>0.787191174090596</v>
       </c>
       <c r="H16" t="n">
-        <v>6.998845166005484</v>
+        <v>6.998845166005486</v>
       </c>
       <c r="I16" t="n">
         <v>23.67298548992447</v>
       </c>
       <c r="J16" t="n">
-        <v>55.65441600820512</v>
+        <v>55.65441600820513</v>
       </c>
       <c r="K16" t="n">
-        <v>91.45730186252557</v>
+        <v>91.45730186252558</v>
       </c>
       <c r="L16" t="n">
-        <v>117.0338587370691</v>
+        <v>117.0338587370692</v>
       </c>
       <c r="M16" t="n">
         <v>123.3957946804013</v>
@@ -32171,25 +32171,25 @@
         <v>120.4617184860637</v>
       </c>
       <c r="O16" t="n">
-        <v>111.2658943160053</v>
+        <v>111.2658943160054</v>
       </c>
       <c r="P16" t="n">
-        <v>95.20719436455711</v>
+        <v>95.20719436455714</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.91652640498617</v>
+        <v>65.91652640498619</v>
       </c>
       <c r="R16" t="n">
-        <v>35.3949777004735</v>
+        <v>35.39497770047352</v>
       </c>
       <c r="S16" t="n">
-        <v>13.71859527937883</v>
+        <v>13.71859527937884</v>
       </c>
       <c r="T16" t="n">
-        <v>3.36345319838709</v>
+        <v>3.363453198387091</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04293770040494164</v>
+        <v>0.04293770040494165</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,10 +32232,10 @@
         <v>17.97244836221011</v>
       </c>
       <c r="I17" t="n">
-        <v>67.65607865095626</v>
+        <v>67.65607865095625</v>
       </c>
       <c r="J17" t="n">
-        <v>148.9455964049439</v>
+        <v>148.9455964049438</v>
       </c>
       <c r="K17" t="n">
         <v>223.2308388482349</v>
@@ -32244,13 +32244,13 @@
         <v>276.9375950122762</v>
       </c>
       <c r="M17" t="n">
-        <v>308.1464346130529</v>
+        <v>308.1464346130528</v>
       </c>
       <c r="N17" t="n">
-        <v>313.132566082271</v>
+        <v>313.1325660822709</v>
       </c>
       <c r="O17" t="n">
-        <v>295.6822027573129</v>
+        <v>295.6822027573128</v>
       </c>
       <c r="P17" t="n">
         <v>252.3579192038343</v>
@@ -32262,10 +32262,10 @@
         <v>110.2367200715422</v>
       </c>
       <c r="S17" t="n">
-        <v>39.98995894581845</v>
+        <v>39.98995894581844</v>
       </c>
       <c r="T17" t="n">
-        <v>7.682108405280096</v>
+        <v>7.682108405280094</v>
       </c>
       <c r="U17" t="n">
         <v>0.1403926150593734</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9389583918741005</v>
+        <v>0.9389583918741004</v>
       </c>
       <c r="H18" t="n">
-        <v>9.068361310994604</v>
+        <v>9.068361310994602</v>
       </c>
       <c r="I18" t="n">
         <v>32.32817270268285</v>
       </c>
       <c r="J18" t="n">
-        <v>88.71097683929825</v>
+        <v>88.71097683929824</v>
       </c>
       <c r="K18" t="n">
         <v>151.621189094863</v>
@@ -32344,7 +32344,7 @@
         <v>17.44074030520532</v>
       </c>
       <c r="T18" t="n">
-        <v>3.78466123742236</v>
+        <v>3.784661237422359</v>
       </c>
       <c r="U18" t="n">
         <v>0.06177357841276979</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7871911740905961</v>
+        <v>0.787191174090596</v>
       </c>
       <c r="H19" t="n">
-        <v>6.998845166005487</v>
+        <v>6.998845166005486</v>
       </c>
       <c r="I19" t="n">
-        <v>23.67298548992448</v>
+        <v>23.67298548992447</v>
       </c>
       <c r="J19" t="n">
-        <v>55.65441600820514</v>
+        <v>55.65441600820513</v>
       </c>
       <c r="K19" t="n">
-        <v>91.4573018625256</v>
+        <v>91.45730186252558</v>
       </c>
       <c r="L19" t="n">
         <v>117.0338587370692</v>
@@ -32405,13 +32405,13 @@
         <v>123.3957946804013</v>
       </c>
       <c r="N19" t="n">
-        <v>120.4617184860638</v>
+        <v>120.4617184860637</v>
       </c>
       <c r="O19" t="n">
         <v>111.2658943160054</v>
       </c>
       <c r="P19" t="n">
-        <v>95.20719436455715</v>
+        <v>95.20719436455714</v>
       </c>
       <c r="Q19" t="n">
         <v>65.91652640498619</v>
@@ -32469,31 +32469,31 @@
         <v>17.97244836221011</v>
       </c>
       <c r="I20" t="n">
-        <v>67.65607865095623</v>
+        <v>67.65607865095625</v>
       </c>
       <c r="J20" t="n">
         <v>148.9455964049438</v>
       </c>
       <c r="K20" t="n">
-        <v>223.2308388482348</v>
+        <v>223.2308388482349</v>
       </c>
       <c r="L20" t="n">
-        <v>276.9375950122761</v>
+        <v>276.9375950122762</v>
       </c>
       <c r="M20" t="n">
-        <v>308.1464346130527</v>
+        <v>308.1464346130528</v>
       </c>
       <c r="N20" t="n">
-        <v>313.1325660822708</v>
+        <v>313.1325660822709</v>
       </c>
       <c r="O20" t="n">
-        <v>295.6822027573127</v>
+        <v>295.6822027573128</v>
       </c>
       <c r="P20" t="n">
-        <v>252.3579192038342</v>
+        <v>252.3579192038343</v>
       </c>
       <c r="Q20" t="n">
-        <v>189.5102876186615</v>
+        <v>189.5102876186616</v>
       </c>
       <c r="R20" t="n">
         <v>110.2367200715422</v>
@@ -32502,7 +32502,7 @@
         <v>39.98995894581844</v>
       </c>
       <c r="T20" t="n">
-        <v>7.682108405280093</v>
+        <v>7.682108405280094</v>
       </c>
       <c r="U20" t="n">
         <v>0.1403926150593734</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9389583918741001</v>
+        <v>0.9389583918741004</v>
       </c>
       <c r="H21" t="n">
-        <v>9.0683613109946</v>
+        <v>9.068361310994602</v>
       </c>
       <c r="I21" t="n">
-        <v>32.32817270268283</v>
+        <v>32.32817270268285</v>
       </c>
       <c r="J21" t="n">
-        <v>88.71097683929823</v>
+        <v>88.71097683929824</v>
       </c>
       <c r="K21" t="n">
-        <v>151.6211890948629</v>
+        <v>151.621189094863</v>
       </c>
       <c r="L21" t="n">
-        <v>203.8733999549444</v>
+        <v>203.8733999549445</v>
       </c>
       <c r="M21" t="n">
-        <v>237.9106416603805</v>
+        <v>237.9106416603806</v>
       </c>
       <c r="N21" t="n">
-        <v>244.2074284199222</v>
+        <v>244.2074284199223</v>
       </c>
       <c r="O21" t="n">
-        <v>223.4020872105013</v>
+        <v>223.4020872105014</v>
       </c>
       <c r="P21" t="n">
-        <v>179.2998704623446</v>
+        <v>179.2998704623447</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.8572150750167</v>
+        <v>119.8572150750168</v>
       </c>
       <c r="R21" t="n">
-        <v>58.29778506741125</v>
+        <v>58.29778506741128</v>
       </c>
       <c r="S21" t="n">
-        <v>17.44074030520531</v>
+        <v>17.44074030520532</v>
       </c>
       <c r="T21" t="n">
-        <v>3.784661237422358</v>
+        <v>3.784661237422359</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06177357841276977</v>
+        <v>0.06177357841276979</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7871911740905958</v>
+        <v>0.787191174090596</v>
       </c>
       <c r="H22" t="n">
-        <v>6.998845166005484</v>
+        <v>6.998845166005486</v>
       </c>
       <c r="I22" t="n">
         <v>23.67298548992447</v>
       </c>
       <c r="J22" t="n">
-        <v>55.65441600820512</v>
+        <v>55.65441600820513</v>
       </c>
       <c r="K22" t="n">
-        <v>91.45730186252557</v>
+        <v>91.45730186252558</v>
       </c>
       <c r="L22" t="n">
-        <v>117.0338587370691</v>
+        <v>117.0338587370692</v>
       </c>
       <c r="M22" t="n">
         <v>123.3957946804013</v>
@@ -32645,25 +32645,25 @@
         <v>120.4617184860637</v>
       </c>
       <c r="O22" t="n">
-        <v>111.2658943160053</v>
+        <v>111.2658943160054</v>
       </c>
       <c r="P22" t="n">
-        <v>95.20719436455711</v>
+        <v>95.20719436455714</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.91652640498617</v>
+        <v>65.91652640498619</v>
       </c>
       <c r="R22" t="n">
-        <v>35.3949777004735</v>
+        <v>35.39497770047352</v>
       </c>
       <c r="S22" t="n">
-        <v>13.71859527937883</v>
+        <v>13.71859527937884</v>
       </c>
       <c r="T22" t="n">
-        <v>3.36345319838709</v>
+        <v>3.363453198387091</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04293770040494164</v>
+        <v>0.04293770040494165</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.762974641175428</v>
+        <v>1.762974641175427</v>
       </c>
       <c r="H23" t="n">
         <v>18.05506404393785</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96707985391575</v>
+        <v>67.96707985391573</v>
       </c>
       <c r="J23" t="n">
         <v>149.6302689514631</v>
@@ -32715,7 +32715,7 @@
         <v>224.256985512419</v>
       </c>
       <c r="L23" t="n">
-        <v>278.2106206872916</v>
+        <v>278.2106206872915</v>
       </c>
       <c r="M23" t="n">
         <v>309.562920962295</v>
@@ -32727,19 +32727,19 @@
         <v>297.0413935733466</v>
       </c>
       <c r="P23" t="n">
-        <v>253.5179571193282</v>
+        <v>253.5179571193281</v>
       </c>
       <c r="Q23" t="n">
         <v>190.3814277822331</v>
       </c>
       <c r="R23" t="n">
-        <v>110.7434558037361</v>
+        <v>110.743455803736</v>
       </c>
       <c r="S23" t="n">
         <v>40.1737846357851</v>
       </c>
       <c r="T23" t="n">
-        <v>7.717421491745439</v>
+        <v>7.717421491745438</v>
       </c>
       <c r="U23" t="n">
         <v>0.1410379712940342</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9432745922100421</v>
+        <v>0.943274592210042</v>
       </c>
       <c r="H24" t="n">
-        <v>9.11004671950225</v>
+        <v>9.110046719502249</v>
       </c>
       <c r="I24" t="n">
-        <v>32.47677872302119</v>
+        <v>32.47677872302118</v>
       </c>
       <c r="J24" t="n">
-        <v>89.1187631175286</v>
+        <v>89.11876311752859</v>
       </c>
       <c r="K24" t="n">
         <v>152.3181607956014</v>
@@ -32800,28 +32800,28 @@
         <v>239.0042683858514</v>
       </c>
       <c r="N24" t="n">
-        <v>245.3300001906285</v>
+        <v>245.3300001906284</v>
       </c>
       <c r="O24" t="n">
-        <v>224.4290210685007</v>
+        <v>224.4290210685006</v>
       </c>
       <c r="P24" t="n">
-        <v>180.1240754194773</v>
+        <v>180.1240754194772</v>
       </c>
       <c r="Q24" t="n">
         <v>120.4081742617591</v>
       </c>
       <c r="R24" t="n">
-        <v>58.56576810230421</v>
+        <v>58.5657681023042</v>
       </c>
       <c r="S24" t="n">
         <v>17.52091183337511</v>
       </c>
       <c r="T24" t="n">
-        <v>3.802058553688721</v>
+        <v>3.80205855368872</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06205753896118701</v>
+        <v>0.062057538961187</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,16 +32861,16 @@
         <v>0.7908097314616831</v>
       </c>
       <c r="H25" t="n">
-        <v>7.031017430632061</v>
+        <v>7.03101743063206</v>
       </c>
       <c r="I25" t="n">
-        <v>23.7818053788659</v>
+        <v>23.78180537886589</v>
       </c>
       <c r="J25" t="n">
         <v>55.91024801434099</v>
       </c>
       <c r="K25" t="n">
-        <v>91.87771243709372</v>
+        <v>91.87771243709371</v>
       </c>
       <c r="L25" t="n">
         <v>117.5718395302215</v>
@@ -32885,19 +32885,19 @@
         <v>111.7773609524205</v>
       </c>
       <c r="P25" t="n">
-        <v>95.64484243060208</v>
+        <v>95.64484243060207</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.21953124085059</v>
+        <v>66.21953124085057</v>
       </c>
       <c r="R25" t="n">
-        <v>35.55768119826804</v>
+        <v>35.55768119826803</v>
       </c>
       <c r="S25" t="n">
-        <v>13.78165686556406</v>
+        <v>13.78165686556405</v>
       </c>
       <c r="T25" t="n">
-        <v>3.378914307154464</v>
+        <v>3.378914307154463</v>
       </c>
       <c r="U25" t="n">
         <v>0.0431350762615464</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.762974641175428</v>
+        <v>1.762974641175427</v>
       </c>
       <c r="H26" t="n">
         <v>18.05506404393785</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96707985391575</v>
+        <v>67.96707985391573</v>
       </c>
       <c r="J26" t="n">
         <v>149.6302689514631</v>
@@ -32952,7 +32952,7 @@
         <v>224.256985512419</v>
       </c>
       <c r="L26" t="n">
-        <v>278.2106206872916</v>
+        <v>278.2106206872915</v>
       </c>
       <c r="M26" t="n">
         <v>309.562920962295</v>
@@ -32964,19 +32964,19 @@
         <v>297.0413935733466</v>
       </c>
       <c r="P26" t="n">
-        <v>253.5179571193282</v>
+        <v>253.5179571193281</v>
       </c>
       <c r="Q26" t="n">
         <v>190.3814277822331</v>
       </c>
       <c r="R26" t="n">
-        <v>110.7434558037361</v>
+        <v>110.743455803736</v>
       </c>
       <c r="S26" t="n">
         <v>40.1737846357851</v>
       </c>
       <c r="T26" t="n">
-        <v>7.717421491745439</v>
+        <v>7.717421491745438</v>
       </c>
       <c r="U26" t="n">
         <v>0.1410379712940342</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9432745922100421</v>
+        <v>0.943274592210042</v>
       </c>
       <c r="H27" t="n">
-        <v>9.11004671950225</v>
+        <v>9.110046719502249</v>
       </c>
       <c r="I27" t="n">
-        <v>32.47677872302119</v>
+        <v>32.47677872302118</v>
       </c>
       <c r="J27" t="n">
-        <v>89.1187631175286</v>
+        <v>89.11876311752859</v>
       </c>
       <c r="K27" t="n">
         <v>152.3181607956014</v>
@@ -33037,28 +33037,28 @@
         <v>239.0042683858514</v>
       </c>
       <c r="N27" t="n">
-        <v>245.3300001906285</v>
+        <v>245.3300001906284</v>
       </c>
       <c r="O27" t="n">
-        <v>224.4290210685007</v>
+        <v>224.4290210685006</v>
       </c>
       <c r="P27" t="n">
-        <v>180.1240754194773</v>
+        <v>180.1240754194772</v>
       </c>
       <c r="Q27" t="n">
         <v>120.4081742617591</v>
       </c>
       <c r="R27" t="n">
-        <v>58.56576810230421</v>
+        <v>58.5657681023042</v>
       </c>
       <c r="S27" t="n">
         <v>17.52091183337511</v>
       </c>
       <c r="T27" t="n">
-        <v>3.802058553688721</v>
+        <v>3.80205855368872</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06205753896118701</v>
+        <v>0.062057538961187</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>0.7908097314616831</v>
       </c>
       <c r="H28" t="n">
-        <v>7.031017430632061</v>
+        <v>7.03101743063206</v>
       </c>
       <c r="I28" t="n">
-        <v>23.7818053788659</v>
+        <v>23.78180537886589</v>
       </c>
       <c r="J28" t="n">
         <v>55.91024801434099</v>
       </c>
       <c r="K28" t="n">
-        <v>91.87771243709372</v>
+        <v>91.87771243709371</v>
       </c>
       <c r="L28" t="n">
         <v>117.5718395302215</v>
@@ -33122,19 +33122,19 @@
         <v>111.7773609524205</v>
       </c>
       <c r="P28" t="n">
-        <v>95.64484243060208</v>
+        <v>95.64484243060207</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.21953124085059</v>
+        <v>66.21953124085057</v>
       </c>
       <c r="R28" t="n">
-        <v>35.55768119826804</v>
+        <v>35.55768119826803</v>
       </c>
       <c r="S28" t="n">
-        <v>13.78165686556406</v>
+        <v>13.78165686556405</v>
       </c>
       <c r="T28" t="n">
-        <v>3.378914307154464</v>
+        <v>3.378914307154463</v>
       </c>
       <c r="U28" t="n">
         <v>0.0431350762615464</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>435.2356237478845</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>277.0726704737831</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>324.7212149383461</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9096973612267</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35096,10 +35096,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>146.8701174698177</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35111,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.0748027298629</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>168.3155769623499</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8905615236376</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>33.10817610699273</v>
+        <v>33.10817610699274</v>
       </c>
       <c r="J11" t="n">
         <v>119.5256369193573</v>
@@ -35415,25 +35415,25 @@
         <v>187.4662380534255</v>
       </c>
       <c r="L11" t="n">
-        <v>238.6255525796532</v>
+        <v>238.6255525796533</v>
       </c>
       <c r="M11" t="n">
-        <v>270.7151717136209</v>
+        <v>270.715171713621</v>
       </c>
       <c r="N11" t="n">
-        <v>275.8529432478248</v>
+        <v>275.8529432478249</v>
       </c>
       <c r="O11" t="n">
-        <v>258.2912434012886</v>
+        <v>258.2912434012887</v>
       </c>
       <c r="P11" t="n">
-        <v>214.7825573936029</v>
+        <v>214.782557393603</v>
       </c>
       <c r="Q11" t="n">
         <v>153.3856130140635</v>
       </c>
       <c r="R11" t="n">
-        <v>75.20407017674569</v>
+        <v>75.20407017674572</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.15578595268283</v>
+        <v>39.85003428037157</v>
       </c>
       <c r="J12" t="n">
-        <v>68.09986250596489</v>
+        <v>363.1528852025216</v>
       </c>
       <c r="K12" t="n">
         <v>129.2219552615296</v>
@@ -35503,13 +35503,13 @@
         <v>222.8644002063806</v>
       </c>
       <c r="O12" t="n">
-        <v>200.2301974882791</v>
+        <v>200.2301974882792</v>
       </c>
       <c r="P12" t="n">
-        <v>159.7374481803418</v>
+        <v>157.529029257516</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603341</v>
+        <v>144.8610536589145</v>
       </c>
       <c r="R12" t="n">
         <v>141.1455730317578</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>35.01766002430325</v>
+        <v>113.7264647194759</v>
       </c>
       <c r="K13" t="n">
-        <v>70.49264740981357</v>
+        <v>70.49264740981359</v>
       </c>
       <c r="L13" t="n">
-        <v>223.1238205446843</v>
+        <v>95.11509884136794</v>
       </c>
       <c r="M13" t="n">
-        <v>461.3999057603341</v>
+        <v>100.8203547889155</v>
       </c>
       <c r="N13" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O13" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P13" t="n">
-        <v>72.82639370657063</v>
+        <v>388.7417518614268</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.29696364020123</v>
+        <v>135.2610734649077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>33.10817610699273</v>
+        <v>33.10817610699274</v>
       </c>
       <c r="J14" t="n">
         <v>119.5256369193573</v>
@@ -35652,25 +35652,25 @@
         <v>187.4662380534255</v>
       </c>
       <c r="L14" t="n">
-        <v>238.6255525796532</v>
+        <v>238.6255525796533</v>
       </c>
       <c r="M14" t="n">
-        <v>270.7151717136209</v>
+        <v>270.715171713621</v>
       </c>
       <c r="N14" t="n">
-        <v>275.8529432478248</v>
+        <v>275.8529432478249</v>
       </c>
       <c r="O14" t="n">
-        <v>258.2912434012886</v>
+        <v>258.2912434012887</v>
       </c>
       <c r="P14" t="n">
-        <v>214.7825573936029</v>
+        <v>214.782557393603</v>
       </c>
       <c r="Q14" t="n">
         <v>153.3856130140635</v>
       </c>
       <c r="R14" t="n">
-        <v>75.20407017674569</v>
+        <v>75.20407017674572</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.15578595268283</v>
+        <v>16.15578595268285</v>
       </c>
       <c r="J15" t="n">
-        <v>363.1528852025215</v>
+        <v>363.1528852025216</v>
       </c>
       <c r="K15" t="n">
         <v>129.2219552615296</v>
@@ -35737,19 +35737,19 @@
         <v>214.8138611480526</v>
       </c>
       <c r="N15" t="n">
-        <v>400.8302327654365</v>
+        <v>222.8644002063806</v>
       </c>
       <c r="O15" t="n">
-        <v>200.2301974882791</v>
+        <v>200.2301974882792</v>
       </c>
       <c r="P15" t="n">
         <v>157.529029257516</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.11017678603822</v>
+        <v>168.5553019866033</v>
       </c>
       <c r="R15" t="n">
-        <v>34.62486567326711</v>
+        <v>141.1455730317578</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.01766002430325</v>
+        <v>35.01766002430327</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2730606563005</v>
+        <v>70.49264740981359</v>
       </c>
       <c r="L16" t="n">
-        <v>95.11509884136791</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M16" t="n">
-        <v>461.3999057603341</v>
+        <v>223.1238205446842</v>
       </c>
       <c r="N16" t="n">
-        <v>99.71281751046331</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O16" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P16" t="n">
-        <v>312.741790413271</v>
+        <v>72.82639370657066</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.29696364020123</v>
+        <v>41.29696364020124</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>33.10817610699276</v>
+        <v>33.10817610699274</v>
       </c>
       <c r="J17" t="n">
         <v>119.5256369193573</v>
       </c>
       <c r="K17" t="n">
-        <v>187.4662380534256</v>
+        <v>187.4662380534255</v>
       </c>
       <c r="L17" t="n">
         <v>238.6255525796533</v>
@@ -35895,19 +35895,19 @@
         <v>270.715171713621</v>
       </c>
       <c r="N17" t="n">
-        <v>275.852943247825</v>
+        <v>275.8529432478249</v>
       </c>
       <c r="O17" t="n">
-        <v>258.2912434012888</v>
+        <v>258.2912434012887</v>
       </c>
       <c r="P17" t="n">
         <v>214.782557393603</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.3856130140636</v>
+        <v>153.3856130140635</v>
       </c>
       <c r="R17" t="n">
-        <v>75.20407017674574</v>
+        <v>75.20407017674572</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>16.15578595268285</v>
       </c>
       <c r="J18" t="n">
-        <v>363.1528852025216</v>
+        <v>68.09986250596491</v>
       </c>
       <c r="K18" t="n">
         <v>129.2219552615296</v>
       </c>
       <c r="L18" t="n">
-        <v>181.3583132407149</v>
+        <v>290.0874395220312</v>
       </c>
       <c r="M18" t="n">
         <v>214.8138611480526</v>
       </c>
       <c r="N18" t="n">
-        <v>222.8644002063807</v>
+        <v>222.8644002063806</v>
       </c>
       <c r="O18" t="n">
         <v>200.2301974882792</v>
@@ -35983,10 +35983,10 @@
         <v>157.529029257516</v>
       </c>
       <c r="Q18" t="n">
-        <v>275.0760093450938</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R18" t="n">
-        <v>34.62486567326714</v>
+        <v>34.62486567326713</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>320.2730606563005</v>
       </c>
       <c r="L19" t="n">
-        <v>95.11509884136797</v>
+        <v>95.11509884136794</v>
       </c>
       <c r="M19" t="n">
-        <v>461.3999057603341</v>
+        <v>108.0168869180527</v>
       </c>
       <c r="N19" t="n">
-        <v>99.71281751046337</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O19" t="n">
-        <v>153.7886170130672</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P19" t="n">
-        <v>388.7417518614268</v>
+        <v>72.82639370657066</v>
       </c>
       <c r="Q19" t="n">
         <v>194.1994862441397</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>33.10817610699273</v>
+        <v>33.10817610699274</v>
       </c>
       <c r="J20" t="n">
         <v>119.5256369193573</v>
@@ -36126,25 +36126,25 @@
         <v>187.4662380534255</v>
       </c>
       <c r="L20" t="n">
-        <v>238.6255525796532</v>
+        <v>238.6255525796533</v>
       </c>
       <c r="M20" t="n">
-        <v>270.7151717136209</v>
+        <v>270.715171713621</v>
       </c>
       <c r="N20" t="n">
-        <v>275.8529432478248</v>
+        <v>275.8529432478249</v>
       </c>
       <c r="O20" t="n">
-        <v>258.2912434012886</v>
+        <v>258.2912434012887</v>
       </c>
       <c r="P20" t="n">
-        <v>214.7825573936029</v>
+        <v>214.782557393603</v>
       </c>
       <c r="Q20" t="n">
         <v>153.3856130140635</v>
       </c>
       <c r="R20" t="n">
-        <v>75.20407017674569</v>
+        <v>75.20407017674572</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.15578595268283</v>
+        <v>39.85003428037157</v>
       </c>
       <c r="J21" t="n">
-        <v>363.1528852025215</v>
+        <v>363.1528852025216</v>
       </c>
       <c r="K21" t="n">
         <v>129.2219552615296</v>
@@ -36214,16 +36214,16 @@
         <v>222.8644002063806</v>
       </c>
       <c r="O21" t="n">
-        <v>200.2301974882791</v>
+        <v>200.2301974882792</v>
       </c>
       <c r="P21" t="n">
         <v>157.529029257516</v>
       </c>
       <c r="Q21" t="n">
-        <v>168.5553019866035</v>
+        <v>251.381761017405</v>
       </c>
       <c r="R21" t="n">
-        <v>141.1455730317578</v>
+        <v>34.62486567326713</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.01766002430325</v>
+        <v>113.7264647194759</v>
       </c>
       <c r="K22" t="n">
-        <v>70.49264740981357</v>
+        <v>320.2730606563005</v>
       </c>
       <c r="L22" t="n">
-        <v>223.1238205446844</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M22" t="n">
-        <v>461.3999057603341</v>
+        <v>267.2678015457781</v>
       </c>
       <c r="N22" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O22" t="n">
-        <v>461.3999057603341</v>
+        <v>88.76670681758092</v>
       </c>
       <c r="P22" t="n">
-        <v>72.82639370657063</v>
+        <v>72.82639370657066</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.29696364020123</v>
+        <v>41.29696364020124</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>33.41917730995225</v>
+        <v>33.41917730995223</v>
       </c>
       <c r="J23" t="n">
-        <v>120.2103094658766</v>
+        <v>120.2103094658765</v>
       </c>
       <c r="K23" t="n">
         <v>188.4923847176096</v>
@@ -36375,13 +36375,13 @@
         <v>259.6504342173225</v>
       </c>
       <c r="P23" t="n">
-        <v>215.9425953090969</v>
+        <v>215.9425953090968</v>
       </c>
       <c r="Q23" t="n">
         <v>154.2567531776351</v>
       </c>
       <c r="R23" t="n">
-        <v>75.71080590893959</v>
+        <v>75.71080590893956</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.30439197302119</v>
+        <v>39.99864030070991</v>
       </c>
       <c r="J24" t="n">
-        <v>68.50764878419527</v>
+        <v>363.5606714807519</v>
       </c>
       <c r="K24" t="n">
-        <v>129.9189269622681</v>
+        <v>129.918926962268</v>
       </c>
       <c r="L24" t="n">
-        <v>293.5400313123338</v>
+        <v>182.2954777040079</v>
       </c>
       <c r="M24" t="n">
-        <v>463.9374989256486</v>
+        <v>215.9074878735234</v>
       </c>
       <c r="N24" t="n">
         <v>223.9869719770868</v>
@@ -36457,7 +36457,7 @@
         <v>158.3532342146486</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.66113597278057</v>
+        <v>138.1884296089864</v>
       </c>
       <c r="R24" t="n">
         <v>141.4135560666508</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.27349203043913</v>
+        <v>35.27349203043912</v>
       </c>
       <c r="K25" t="n">
-        <v>70.91305798438172</v>
+        <v>70.91305798438171</v>
       </c>
       <c r="L25" t="n">
         <v>224.1419892106052</v>
@@ -36533,10 +36533,10 @@
         <v>463.9374989256486</v>
       </c>
       <c r="P25" t="n">
-        <v>73.2640417726156</v>
+        <v>73.26404177261558</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.59996847606564</v>
+        <v>41.59996847606563</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>33.41917730995225</v>
+        <v>33.41917730995223</v>
       </c>
       <c r="J26" t="n">
-        <v>120.2103094658766</v>
+        <v>120.2103094658765</v>
       </c>
       <c r="K26" t="n">
         <v>188.4923847176096</v>
@@ -36612,13 +36612,13 @@
         <v>259.6504342173225</v>
       </c>
       <c r="P26" t="n">
-        <v>215.9425953090969</v>
+        <v>215.9425953090968</v>
       </c>
       <c r="Q26" t="n">
         <v>154.2567531776351</v>
       </c>
       <c r="R26" t="n">
-        <v>75.71080590893959</v>
+        <v>75.71080590893956</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.30439197302119</v>
+        <v>39.99864030070991</v>
       </c>
       <c r="J27" t="n">
-        <v>68.50764878419527</v>
+        <v>363.5606714807519</v>
       </c>
       <c r="K27" t="n">
-        <v>463.9374989256486</v>
+        <v>129.918926962268</v>
       </c>
       <c r="L27" t="n">
         <v>182.2954777040079</v>
       </c>
       <c r="M27" t="n">
-        <v>215.9074878735235</v>
+        <v>215.9074878735234</v>
       </c>
       <c r="N27" t="n">
         <v>223.9869719770868</v>
@@ -36694,10 +36694,10 @@
         <v>158.3532342146486</v>
       </c>
       <c r="Q27" t="n">
-        <v>229.437836028342</v>
+        <v>138.1884296089864</v>
       </c>
       <c r="R27" t="n">
-        <v>34.89284870816007</v>
+        <v>141.4135560666508</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.27349203043913</v>
+        <v>113.9822967256117</v>
       </c>
       <c r="K28" t="n">
-        <v>70.91305798438172</v>
+        <v>320.6934712308686</v>
       </c>
       <c r="L28" t="n">
-        <v>224.1419892106052</v>
+        <v>463.9374989256486</v>
       </c>
       <c r="M28" t="n">
-        <v>463.9374989256486</v>
+        <v>101.3875801048215</v>
       </c>
       <c r="N28" t="n">
-        <v>463.9374989256486</v>
+        <v>100.266555476168</v>
       </c>
       <c r="O28" t="n">
-        <v>463.9374989256486</v>
+        <v>153.055752780459</v>
       </c>
       <c r="P28" t="n">
-        <v>73.2640417726156</v>
+        <v>389.1793999274718</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.59996847606564</v>
+        <v>194.5024910800041</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>239.8985782546686</v>
       </c>
       <c r="M29" t="n">
-        <v>272.1316580628633</v>
+        <v>272.1316580628632</v>
       </c>
       <c r="N29" t="n">
         <v>277.2923498270887</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.30439197302118</v>
+        <v>39.99864030070991</v>
       </c>
       <c r="J30" t="n">
         <v>363.5606714807519</v>
       </c>
       <c r="K30" t="n">
-        <v>129.918926962268</v>
+        <v>170.4462205984742</v>
       </c>
       <c r="L30" t="n">
         <v>182.2954777040079</v>
@@ -36931,10 +36931,10 @@
         <v>158.3532342146486</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.4033852951659</v>
+        <v>97.66113597278056</v>
       </c>
       <c r="R30" t="n">
-        <v>34.89284870816006</v>
+        <v>141.4135560666508</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>154.2567531776351</v>
       </c>
       <c r="R32" t="n">
-        <v>75.71080590893956</v>
+        <v>75.71080590893982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.30439197302118</v>
+        <v>39.99864030070991</v>
       </c>
       <c r="J33" t="n">
         <v>363.5606714807519</v>
       </c>
       <c r="K33" t="n">
-        <v>129.918926962268</v>
+        <v>170.4462205984742</v>
       </c>
       <c r="L33" t="n">
-        <v>246.5170196679026</v>
+        <v>182.2954777040079</v>
       </c>
       <c r="M33" t="n">
         <v>215.9074878735234</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>113.9822967256117</v>
+        <v>35.27349203043912</v>
       </c>
       <c r="K34" t="n">
-        <v>120.693162865294</v>
+        <v>70.91305798438171</v>
       </c>
       <c r="L34" t="n">
-        <v>95.65307963452031</v>
+        <v>224.1419892106052</v>
       </c>
       <c r="M34" t="n">
         <v>463.9374989256486</v>
@@ -37311,7 +37311,7 @@
         <v>188.4923847176096</v>
       </c>
       <c r="L35" t="n">
-        <v>239.8985782546687</v>
+        <v>239.8985782546686</v>
       </c>
       <c r="M35" t="n">
         <v>272.1316580628632</v>
@@ -37329,7 +37329,7 @@
         <v>154.2567531776351</v>
       </c>
       <c r="R35" t="n">
-        <v>75.71080590893956</v>
+        <v>75.71080590893982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>16.30439197302118</v>
       </c>
       <c r="J36" t="n">
-        <v>363.5606714807519</v>
+        <v>68.50764878419525</v>
       </c>
       <c r="K36" t="n">
-        <v>194.1404689261628</v>
+        <v>129.918926962268</v>
       </c>
       <c r="L36" t="n">
         <v>182.2954777040079</v>
@@ -37405,10 +37405,10 @@
         <v>158.3532342146486</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.66113597278056</v>
+        <v>463.9374989256486</v>
       </c>
       <c r="R36" t="n">
-        <v>141.4135560666508</v>
+        <v>134.4117577742339</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>35.27349203043912</v>
       </c>
       <c r="K37" t="n">
-        <v>320.6934712308686</v>
+        <v>70.91305798438171</v>
       </c>
       <c r="L37" t="n">
+        <v>224.1419892106052</v>
+      </c>
+      <c r="M37" t="n">
         <v>463.9374989256486</v>
       </c>
-      <c r="M37" t="n">
-        <v>101.3875801048215</v>
-      </c>
       <c r="N37" t="n">
-        <v>100.266555476168</v>
+        <v>463.9374989256486</v>
       </c>
       <c r="O37" t="n">
         <v>463.9374989256486</v>
       </c>
       <c r="P37" t="n">
-        <v>309.9089810813931</v>
+        <v>73.26404177261558</v>
       </c>
       <c r="Q37" t="n">
         <v>41.59996847606563</v>
@@ -37566,7 +37566,7 @@
         <v>154.2567531776351</v>
       </c>
       <c r="R38" t="n">
-        <v>75.71080590893982</v>
+        <v>75.71080590893956</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.30439197302118</v>
+        <v>39.99864030070991</v>
       </c>
       <c r="J39" t="n">
         <v>363.5606714807519</v>
@@ -37642,10 +37642,10 @@
         <v>158.3532342146486</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.4033852951659</v>
+        <v>138.1884296089864</v>
       </c>
       <c r="R39" t="n">
-        <v>34.89284870816006</v>
+        <v>141.4135560666508</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>70.91305798438171</v>
       </c>
       <c r="L40" t="n">
-        <v>224.1419892106052</v>
+        <v>95.65307963452031</v>
       </c>
       <c r="M40" t="n">
         <v>463.9374989256486</v>
@@ -37718,7 +37718,7 @@
         <v>463.9374989256486</v>
       </c>
       <c r="P40" t="n">
-        <v>73.26404177261558</v>
+        <v>201.7529513487004</v>
       </c>
       <c r="Q40" t="n">
         <v>41.59996847606563</v>
@@ -37800,10 +37800,10 @@
         <v>215.9425953090969</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.2567531776349</v>
+        <v>154.2567531776351</v>
       </c>
       <c r="R41" t="n">
-        <v>75.71080590893959</v>
+        <v>75.71080590893935</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>16.3043919730212</v>
       </c>
       <c r="J42" t="n">
-        <v>363.5606714807519</v>
+        <v>168.0265578502688</v>
       </c>
       <c r="K42" t="n">
         <v>129.9189269622681</v>
@@ -37870,7 +37870,7 @@
         <v>215.9074878735235</v>
       </c>
       <c r="N42" t="n">
-        <v>394.7292212994715</v>
+        <v>223.9869719770868</v>
       </c>
       <c r="O42" t="n">
         <v>201.2571313462785</v>
@@ -37879,7 +37879,7 @@
         <v>158.3532342146486</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.66113597278058</v>
+        <v>463.9374989256486</v>
       </c>
       <c r="R42" t="n">
         <v>34.89284870816008</v>
@@ -37946,10 +37946,10 @@
         <v>463.9374989256486</v>
       </c>
       <c r="M43" t="n">
-        <v>224.1419892106052</v>
+        <v>463.9374989256486</v>
       </c>
       <c r="N43" t="n">
-        <v>463.9374989256486</v>
+        <v>224.1419892106053</v>
       </c>
       <c r="O43" t="n">
         <v>463.9374989256486</v>
@@ -38095,19 +38095,19 @@
         <v>39.99864030070992</v>
       </c>
       <c r="J45" t="n">
-        <v>68.50764878419527</v>
+        <v>363.5606714807519</v>
       </c>
       <c r="K45" t="n">
-        <v>129.9189269622681</v>
+        <v>170.4462205984735</v>
       </c>
       <c r="L45" t="n">
         <v>182.2954777040079</v>
       </c>
       <c r="M45" t="n">
-        <v>418.0579846162144</v>
+        <v>215.9074878735235</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9374989256486</v>
+        <v>223.9869719770868</v>
       </c>
       <c r="O45" t="n">
         <v>201.2571313462785</v>
@@ -38119,7 +38119,7 @@
         <v>97.66113597278058</v>
       </c>
       <c r="R45" t="n">
-        <v>34.89284870816008</v>
+        <v>141.4135560666508</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>35.27349203043913</v>
+        <v>113.9822967256117</v>
       </c>
       <c r="K46" t="n">
         <v>70.91305798438172</v>
       </c>
       <c r="L46" t="n">
+        <v>356.2016053609749</v>
+      </c>
+      <c r="M46" t="n">
         <v>463.9374989256486</v>
       </c>
-      <c r="M46" t="n">
-        <v>101.3875801048215</v>
-      </c>
       <c r="N46" t="n">
-        <v>117.8740272726378</v>
+        <v>100.266555476168</v>
       </c>
       <c r="O46" t="n">
         <v>463.9374989256486</v>
       </c>
       <c r="P46" t="n">
-        <v>389.1793999274718</v>
+        <v>73.26404177261561</v>
       </c>
       <c r="Q46" t="n">
         <v>194.5024910800041</v>
